--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F302924-5C5B-E34F-B71A-5CF6C4D32DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59FE4DE-519B-1646-98D8-F3954DC52D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{41F326A8-C1D6-664F-916E-52E4243E15BE}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{41F326A8-C1D6-664F-916E-52E4243E15BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -224,6 +224,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -563,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF1D819-5954-344C-8373-E4F4E0D3146A}">
   <dimension ref="K2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -584,7 +585,7 @@
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="10">
         <v>7434</v>
       </c>
     </row>
@@ -592,7 +593,7 @@
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="10">
         <f>L2*L3</f>
         <v>3092544</v>
       </c>
@@ -601,7 +602,7 @@
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="10">
         <f>20840+57588+1626</f>
         <v>80054</v>
       </c>
@@ -610,7 +611,7 @@
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="10">
         <f>0+2249+42868</f>
         <v>45117</v>
       </c>
@@ -619,7 +620,7 @@
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="10">
         <f>L4-L5+L6</f>
         <v>3057607</v>
       </c>
@@ -681,8 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1A3BED-D77E-A843-A663-0A377A022B5F}">
   <dimension ref="A1:ES25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59FE4DE-519B-1646-98D8-F3954DC52D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDB1E8-B9A3-DB42-B8F9-5C216E291F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{41F326A8-C1D6-664F-916E-52E4243E15BE}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{41F326A8-C1D6-664F-916E-52E4243E15BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Price</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +192,17 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
@@ -213,7 +230,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -225,6 +242,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -565,7 +585,7 @@
   <dimension ref="K2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -638,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="11:12">
@@ -654,8 +674,8 @@
         <v>8</v>
       </c>
       <c r="L12" s="2">
-        <f>NPV(L11,Model!S17:ES17)+L5-L6</f>
-        <v>3512793.5174447717</v>
+        <f>NPV(L11,Model!V17:EV17)+L5-L6</f>
+        <v>3372186.2585279215</v>
       </c>
     </row>
     <row r="13" spans="11:12">
@@ -664,13 +684,13 @@
       </c>
       <c r="L13" s="3">
         <f>L12/L3</f>
-        <v>472.53073950023833</v>
+        <v>453.61666108796362</v>
       </c>
     </row>
     <row r="15" spans="11:12">
       <c r="L15" s="8">
         <f>L13/L2-1</f>
-        <v>0.13589120072172678</v>
+        <v>9.0424666076835525E-2</v>
       </c>
     </row>
   </sheetData>
@@ -680,21 +700,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1A3BED-D77E-A843-A663-0A377A022B5F}">
-  <dimension ref="A1:ES25"/>
+  <dimension ref="A1:EV25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U13" sqref="U13"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:28">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -722,121 +742,140 @@
       <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="M4">
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4">
         <v>2019</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>2020</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>2021</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>2022</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>2023</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>2024</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>2025</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>2026</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>2027</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>2028</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>2029</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>2030</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <v>2031</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:28" s="11" customFormat="1">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12">
         <v>50122</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <v>52747</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="12">
         <v>52857</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="12">
         <v>56189</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="12">
         <v>56517</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>62020</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="12">
         <v>61858</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="12">
         <v>64727</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="12">
         <v>65585</v>
       </c>
-      <c r="M5" s="5">
+      <c r="L5" s="12">
+        <f>H5*(1.11)</f>
+        <v>68842.200000000012</v>
+      </c>
+      <c r="M5" s="12">
+        <f>I5*1.1225</f>
+        <v>69435.60500000001</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="P5" s="12">
         <v>125843</v>
       </c>
-      <c r="N5" s="5">
+      <c r="Q5" s="12">
         <v>143015</v>
       </c>
-      <c r="O5" s="5">
+      <c r="R5" s="12">
         <v>168088</v>
       </c>
-      <c r="P5" s="5">
+      <c r="S5" s="12">
         <v>198270</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="T5" s="12">
         <v>211915</v>
       </c>
-      <c r="R5" s="5">
+      <c r="U5" s="12">
         <v>245122</v>
       </c>
-      <c r="S5" s="5">
-        <f>R5+R5*S21</f>
-        <v>281890.3</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" ref="T5:X5" si="0">S5+S5*T21</f>
-        <v>318536.03899999999</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="V5" s="12">
+        <f>U5+U5*V21</f>
+        <v>278556.64079999999</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" ref="W5:AB5" si="0">V5+V5*W21</f>
+        <v>318557.37441887998</v>
+      </c>
+      <c r="X5" s="12">
         <f t="shared" si="0"/>
-        <v>356760.36368000001</v>
-      </c>
-      <c r="V5" s="5">
+        <v>356784.25934914558</v>
+      </c>
+      <c r="Y5" s="12">
         <f t="shared" si="0"/>
-        <v>392436.40004800004</v>
-      </c>
-      <c r="W5" s="5">
+        <v>392462.68528406014</v>
+      </c>
+      <c r="Z5" s="12">
         <f t="shared" si="0"/>
-        <v>423831.31205184007</v>
-      </c>
-      <c r="X5" s="5">
+        <v>423859.70010678493</v>
+      </c>
+      <c r="AA5" s="12">
         <f t="shared" si="0"/>
-        <v>445022.87765443209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>445052.68511212419</v>
+      </c>
+      <c r="AB5" s="12">
+        <f t="shared" si="0"/>
+        <v>467305.31936773041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -867,26 +906,35 @@
       <c r="K6" s="5">
         <v>20099</v>
       </c>
+      <c r="L6" s="5">
+        <f>H6*1.11</f>
+        <v>21781.530000000002</v>
+      </c>
       <c r="M6" s="5">
+        <f>I6*1.1225</f>
+        <v>20771.862499999999</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="P6" s="5">
         <v>42910</v>
       </c>
-      <c r="N6" s="5">
+      <c r="Q6" s="5">
         <v>46078</v>
       </c>
-      <c r="O6" s="5">
+      <c r="R6" s="5">
         <v>52232</v>
       </c>
-      <c r="P6" s="5">
+      <c r="S6" s="5">
         <v>62650</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="T6" s="5">
         <v>65863</v>
       </c>
-      <c r="R6" s="5">
+      <c r="U6" s="5">
         <v>74114</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:28">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -917,26 +965,35 @@
       <c r="K7" s="5">
         <v>45486</v>
       </c>
+      <c r="L7" s="5">
+        <f>L5-L6</f>
+        <v>47060.670000000013</v>
+      </c>
       <c r="M7" s="5">
+        <f>M5-M6</f>
+        <v>48663.742500000008</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="P7" s="5">
         <v>82933</v>
       </c>
-      <c r="N7" s="5">
+      <c r="Q7" s="5">
         <v>96937</v>
       </c>
-      <c r="O7" s="5">
+      <c r="R7" s="5">
         <v>115856</v>
       </c>
-      <c r="P7" s="5">
+      <c r="S7" s="5">
         <v>135620</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="T7" s="5">
         <v>146052</v>
       </c>
-      <c r="R7" s="5">
+      <c r="U7" s="5">
         <v>171008</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:28">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -967,26 +1024,32 @@
       <c r="K8" s="5">
         <v>7544</v>
       </c>
-      <c r="M8" s="5">
+      <c r="L8" s="5">
+        <f>K8</f>
+        <v>7544</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5">
         <v>16876</v>
       </c>
-      <c r="N8" s="5">
+      <c r="Q8" s="5">
         <v>19269</v>
       </c>
-      <c r="O8" s="5">
+      <c r="R8" s="5">
         <v>20716</v>
       </c>
-      <c r="P8" s="5">
+      <c r="S8" s="5">
         <v>24512</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="T8" s="5">
         <v>27195</v>
       </c>
-      <c r="R8" s="5">
+      <c r="U8" s="5">
         <v>29510</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:28">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1017,26 +1080,32 @@
       <c r="K9" s="5">
         <v>5717</v>
       </c>
-      <c r="M9" s="5">
+      <c r="L9" s="5">
+        <f>K9</f>
+        <v>5717</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="5">
         <v>18213</v>
       </c>
-      <c r="N9" s="5">
+      <c r="Q9" s="5">
         <v>19598</v>
       </c>
-      <c r="O9" s="5">
+      <c r="R9" s="5">
         <v>20117</v>
       </c>
-      <c r="P9" s="5">
+      <c r="S9" s="5">
         <v>21825</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="T9" s="5">
         <v>22759</v>
       </c>
-      <c r="R9" s="5">
+      <c r="U9" s="5">
         <v>24456</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:28">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1067,26 +1136,32 @@
       <c r="K10" s="5">
         <v>1673</v>
       </c>
-      <c r="M10" s="5">
+      <c r="L10" s="5">
+        <f>K10</f>
+        <v>1673</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="5">
         <v>4885</v>
       </c>
-      <c r="N10" s="5">
+      <c r="Q10" s="5">
         <v>5111</v>
       </c>
-      <c r="O10" s="5">
+      <c r="R10" s="5">
         <v>5107</v>
       </c>
-      <c r="P10" s="5">
+      <c r="S10" s="5">
         <v>5900</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="T10" s="5">
         <v>7575</v>
       </c>
-      <c r="R10" s="5">
+      <c r="U10" s="5">
         <v>7609</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:28">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1117,26 +1192,32 @@
       <c r="K11" s="5">
         <v>14934</v>
       </c>
-      <c r="M11" s="5">
+      <c r="L11" s="5">
+        <f>SUM(L8:L10)</f>
+        <v>14934</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5">
         <v>39974</v>
       </c>
-      <c r="N11" s="5">
+      <c r="Q11" s="5">
         <v>43978</v>
       </c>
-      <c r="O11" s="5">
+      <c r="R11" s="5">
         <v>45940</v>
       </c>
-      <c r="P11" s="5">
+      <c r="S11" s="5">
         <v>52237</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="T11" s="5">
         <v>57529</v>
       </c>
-      <c r="R11" s="5">
+      <c r="U11" s="5">
         <v>61575</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:28">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1167,26 +1248,32 @@
       <c r="K12" s="5">
         <v>30552</v>
       </c>
-      <c r="M12" s="5">
+      <c r="L12" s="5">
+        <f>L7-L11</f>
+        <v>32126.670000000013</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="P12" s="5">
         <v>42959</v>
       </c>
-      <c r="N12" s="5">
+      <c r="Q12" s="5">
         <v>52959</v>
       </c>
-      <c r="O12" s="5">
+      <c r="R12" s="5">
         <v>69916</v>
       </c>
-      <c r="P12" s="5">
+      <c r="S12" s="5">
         <v>83383</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="T12" s="5">
         <v>88523</v>
       </c>
-      <c r="R12" s="5">
+      <c r="U12" s="5">
         <v>109433</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:28">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1217,26 +1304,30 @@
       <c r="K13">
         <v>-283</v>
       </c>
-      <c r="M13">
+      <c r="L13">
+        <f>K13</f>
+        <v>-283</v>
+      </c>
+      <c r="P13">
         <v>729</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>77</v>
       </c>
-      <c r="O13" s="5">
+      <c r="R13" s="5">
         <v>1186</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>333</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>788</v>
       </c>
-      <c r="R13" s="5">
+      <c r="U13" s="5">
         <v>-1646</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:28">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1267,26 +1358,32 @@
       <c r="K14" s="5">
         <v>30269</v>
       </c>
-      <c r="M14" s="5">
+      <c r="L14" s="5">
+        <f>SUM(L12:L13)</f>
+        <v>31843.670000000013</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="P14" s="5">
         <v>43688</v>
       </c>
-      <c r="N14" s="5">
+      <c r="Q14" s="5">
         <v>53036</v>
       </c>
-      <c r="O14" s="5">
+      <c r="R14" s="5">
         <v>71102</v>
       </c>
-      <c r="P14" s="5">
+      <c r="S14" s="5">
         <v>83716</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="T14" s="5">
         <v>89311</v>
       </c>
-      <c r="R14" s="5">
+      <c r="U14" s="5">
         <v>107787</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:28">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1317,26 +1414,32 @@
       <c r="K15" s="5">
         <v>5602</v>
       </c>
-      <c r="M15" s="5">
+      <c r="L15" s="5">
+        <f>L14*K24</f>
+        <v>11976.404287000005</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="P15" s="5">
         <v>4448</v>
       </c>
-      <c r="N15" s="5">
+      <c r="Q15" s="5">
         <v>8755</v>
       </c>
-      <c r="O15" s="5">
+      <c r="R15" s="5">
         <v>9831</v>
       </c>
-      <c r="P15" s="5">
+      <c r="S15" s="5">
         <v>10978</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="T15" s="5">
         <v>16950</v>
       </c>
-      <c r="R15" s="5">
+      <c r="U15" s="5">
         <v>19651</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:28">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1361,594 +1464,600 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:149">
-      <c r="B17" t="s">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:152" s="11" customFormat="1">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="12">
         <v>21421</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="12">
         <v>16425</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="12">
         <v>18299</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="12">
         <v>16216</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="12">
         <v>22291</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="12">
         <v>21870</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="12">
         <v>21939</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="12">
         <v>22036</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="12">
         <v>24667</v>
       </c>
-      <c r="M17" s="5">
+      <c r="L17" s="12">
+        <f>L14-L15</f>
+        <v>19867.265713000008</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="P17" s="12">
         <v>39240</v>
       </c>
-      <c r="N17" s="5">
+      <c r="Q17" s="12">
         <v>44281</v>
       </c>
-      <c r="O17" s="5">
+      <c r="R17" s="12">
         <v>61271</v>
       </c>
-      <c r="P17" s="5">
+      <c r="S17" s="12">
         <v>72738</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="T17" s="12">
         <v>72361</v>
       </c>
-      <c r="R17" s="5">
+      <c r="U17" s="12">
         <v>88136</v>
       </c>
-      <c r="S17" s="5">
-        <f>S5*S24</f>
-        <v>101367.75187999998</v>
-      </c>
-      <c r="T17" s="5">
-        <f t="shared" ref="T17:X17" si="1">T5*T24</f>
-        <v>114545.55962439999</v>
-      </c>
-      <c r="U17" s="5">
+      <c r="V17" s="12">
+        <f>V5*V24</f>
+        <v>100168.96803167999</v>
+      </c>
+      <c r="W17" s="12">
+        <f t="shared" ref="W17:AB17" si="1">W5*W24</f>
+        <v>114553.23184102924</v>
+      </c>
+      <c r="X17" s="12">
         <f t="shared" si="1"/>
-        <v>142704.145472</v>
-      </c>
-      <c r="V17" s="5">
+        <v>142713.70373965823</v>
+      </c>
+      <c r="Y17" s="12">
         <f t="shared" si="1"/>
-        <v>176596.38002160002</v>
-      </c>
-      <c r="W17" s="5">
+        <v>176608.20837782708</v>
+      </c>
+      <c r="Z17" s="12">
         <f t="shared" si="1"/>
-        <v>211915.65602592003</v>
-      </c>
-      <c r="X17" s="5">
+        <v>211929.85005339247</v>
+      </c>
+      <c r="AA17" s="12">
         <f t="shared" si="1"/>
-        <v>222511.43882721604</v>
-      </c>
-      <c r="Y17" s="5">
-        <f>X17+X17*Main!$L$10</f>
-        <v>225849.11040962429</v>
-      </c>
-      <c r="Z17" s="5">
-        <f>Y17+Y17*Main!$L$10</f>
-        <v>229236.84706576867</v>
-      </c>
-      <c r="AA17" s="5">
-        <f>Z17+Z17*Main!$L$10</f>
-        <v>232675.39977175521</v>
-      </c>
-      <c r="AB17" s="5">
-        <f>AA17+AA17*Main!$L$10</f>
-        <v>236165.53076833155</v>
-      </c>
-      <c r="AC17" s="5">
+        <v>222526.3425560621</v>
+      </c>
+      <c r="AB17" s="12">
+        <f t="shared" si="1"/>
+        <v>233652.6596838652</v>
+      </c>
+      <c r="AC17" s="12">
         <f>AB17+AB17*Main!$L$10</f>
-        <v>239708.01372985652</v>
-      </c>
-      <c r="AD17" s="5">
+        <v>235989.18628070387</v>
+      </c>
+      <c r="AD17" s="12">
         <f>AC17+AC17*Main!$L$10</f>
-        <v>243303.63393580436</v>
-      </c>
-      <c r="AE17" s="5">
+        <v>238349.07814351091</v>
+      </c>
+      <c r="AE17" s="12">
         <f>AD17+AD17*Main!$L$10</f>
-        <v>246953.18844484142</v>
-      </c>
-      <c r="AF17" s="5">
+        <v>240732.56892494601</v>
+      </c>
+      <c r="AF17" s="12">
         <f>AE17+AE17*Main!$L$10</f>
-        <v>250657.48627151403</v>
-      </c>
-      <c r="AG17" s="5">
+        <v>243139.89461419548</v>
+      </c>
+      <c r="AG17" s="12">
         <f>AF17+AF17*Main!$L$10</f>
-        <v>254417.34856558676</v>
-      </c>
-      <c r="AH17" s="5">
+        <v>245571.29356033742</v>
+      </c>
+      <c r="AH17" s="12">
         <f>AG17+AG17*Main!$L$10</f>
-        <v>258233.60879407055</v>
-      </c>
-      <c r="AI17" s="5">
+        <v>248027.00649594079</v>
+      </c>
+      <c r="AI17" s="12">
         <f>AH17+AH17*Main!$L$10</f>
-        <v>262107.11292598161</v>
-      </c>
-      <c r="AJ17" s="5">
+        <v>250507.27656090021</v>
+      </c>
+      <c r="AJ17" s="12">
         <f>AI17+AI17*Main!$L$10</f>
-        <v>266038.71961987135</v>
-      </c>
-      <c r="AK17" s="5">
+        <v>253012.34932650923</v>
+      </c>
+      <c r="AK17" s="12">
         <f>AJ17+AJ17*Main!$L$10</f>
-        <v>270029.30041416944</v>
-      </c>
-      <c r="AL17" s="5">
+        <v>255542.47281977432</v>
+      </c>
+      <c r="AL17" s="12">
         <f>AK17+AK17*Main!$L$10</f>
-        <v>274079.73992038198</v>
-      </c>
-      <c r="AM17" s="5">
+        <v>258097.89754797207</v>
+      </c>
+      <c r="AM17" s="12">
         <f>AL17+AL17*Main!$L$10</f>
-        <v>278190.93601918773</v>
-      </c>
-      <c r="AN17" s="5">
+        <v>260678.87652345179</v>
+      </c>
+      <c r="AN17" s="12">
         <f>AM17+AM17*Main!$L$10</f>
-        <v>282363.80005947553</v>
-      </c>
-      <c r="AO17" s="5">
+        <v>263285.66528868629</v>
+      </c>
+      <c r="AO17" s="12">
         <f>AN17+AN17*Main!$L$10</f>
-        <v>286599.25706036767</v>
-      </c>
-      <c r="AP17" s="5">
+        <v>265918.52194157313</v>
+      </c>
+      <c r="AP17" s="12">
         <f>AO17+AO17*Main!$L$10</f>
-        <v>290898.24591627321</v>
-      </c>
-      <c r="AQ17" s="5">
+        <v>268577.70716098888</v>
+      </c>
+      <c r="AQ17" s="12">
         <f>AP17+AP17*Main!$L$10</f>
-        <v>295261.71960501734</v>
-      </c>
-      <c r="AR17" s="5">
+        <v>271263.48423259874</v>
+      </c>
+      <c r="AR17" s="12">
         <f>AQ17+AQ17*Main!$L$10</f>
-        <v>299690.64539909258</v>
-      </c>
-      <c r="AS17" s="5">
+        <v>273976.11907492473</v>
+      </c>
+      <c r="AS17" s="12">
         <f>AR17+AR17*Main!$L$10</f>
-        <v>304186.00508007896</v>
-      </c>
-      <c r="AT17" s="5">
+        <v>276715.88026567397</v>
+      </c>
+      <c r="AT17" s="12">
         <f>AS17+AS17*Main!$L$10</f>
-        <v>308748.79515628016</v>
-      </c>
-      <c r="AU17" s="5">
+        <v>279483.03906833072</v>
+      </c>
+      <c r="AU17" s="12">
         <f>AT17+AT17*Main!$L$10</f>
-        <v>313380.02708362439</v>
-      </c>
-      <c r="AV17" s="5">
+        <v>282277.86945901404</v>
+      </c>
+      <c r="AV17" s="12">
         <f>AU17+AU17*Main!$L$10</f>
-        <v>318080.72748987877</v>
-      </c>
-      <c r="AW17" s="5">
+        <v>285100.64815360418</v>
+      </c>
+      <c r="AW17" s="12">
         <f>AV17+AV17*Main!$L$10</f>
-        <v>322851.93840222695</v>
-      </c>
-      <c r="AX17" s="5">
+        <v>287951.65463514021</v>
+      </c>
+      <c r="AX17" s="12">
         <f>AW17+AW17*Main!$L$10</f>
-        <v>327694.71747826034</v>
-      </c>
-      <c r="AY17" s="5">
+        <v>290831.17118149163</v>
+      </c>
+      <c r="AY17" s="12">
         <f>AX17+AX17*Main!$L$10</f>
-        <v>332610.13824043423</v>
-      </c>
-      <c r="AZ17" s="5">
+        <v>293739.48289330653</v>
+      </c>
+      <c r="AZ17" s="12">
         <f>AY17+AY17*Main!$L$10</f>
-        <v>337599.29031404073</v>
-      </c>
-      <c r="BA17" s="5">
+        <v>296676.87772223959</v>
+      </c>
+      <c r="BA17" s="12">
         <f>AZ17+AZ17*Main!$L$10</f>
-        <v>342663.27966875135</v>
-      </c>
-      <c r="BB17" s="5">
+        <v>299643.64649946196</v>
+      </c>
+      <c r="BB17" s="12">
         <f>BA17+BA17*Main!$L$10</f>
-        <v>347803.2288637826</v>
-      </c>
-      <c r="BC17" s="5">
+        <v>302640.08296445658</v>
+      </c>
+      <c r="BC17" s="12">
         <f>BB17+BB17*Main!$L$10</f>
-        <v>353020.27729673934</v>
-      </c>
-      <c r="BD17" s="5">
+        <v>305666.48379410116</v>
+      </c>
+      <c r="BD17" s="12">
         <f>BC17+BC17*Main!$L$10</f>
-        <v>358315.58145619044</v>
-      </c>
-      <c r="BE17" s="5">
+        <v>308723.14863204217</v>
+      </c>
+      <c r="BE17" s="12">
         <f>BD17+BD17*Main!$L$10</f>
-        <v>363690.31517803331</v>
-      </c>
-      <c r="BF17" s="5">
+        <v>311810.38011836261</v>
+      </c>
+      <c r="BF17" s="12">
         <f>BE17+BE17*Main!$L$10</f>
-        <v>369145.66990570381</v>
-      </c>
-      <c r="BG17" s="5">
+        <v>314928.48391954624</v>
+      </c>
+      <c r="BG17" s="12">
         <f>BF17+BF17*Main!$L$10</f>
-        <v>374682.85495428939</v>
-      </c>
-      <c r="BH17" s="5">
+        <v>318077.76875874173</v>
+      </c>
+      <c r="BH17" s="12">
         <f>BG17+BG17*Main!$L$10</f>
-        <v>380303.09777860373</v>
-      </c>
-      <c r="BI17" s="5">
+        <v>321258.54644632916</v>
+      </c>
+      <c r="BI17" s="12">
         <f>BH17+BH17*Main!$L$10</f>
-        <v>386007.64424528281</v>
-      </c>
-      <c r="BJ17" s="5">
+        <v>324471.13191079244</v>
+      </c>
+      <c r="BJ17" s="12">
         <f>BI17+BI17*Main!$L$10</f>
-        <v>391797.75890896207</v>
-      </c>
-      <c r="BK17" s="5">
+        <v>327715.84322990035</v>
+      </c>
+      <c r="BK17" s="12">
         <f>BJ17+BJ17*Main!$L$10</f>
-        <v>397674.7252925965</v>
-      </c>
-      <c r="BL17" s="5">
+        <v>330993.00166219933</v>
+      </c>
+      <c r="BL17" s="12">
         <f>BK17+BK17*Main!$L$10</f>
-        <v>403639.84617198544</v>
-      </c>
-      <c r="BM17" s="5">
+        <v>334302.93167882133</v>
+      </c>
+      <c r="BM17" s="12">
         <f>BL17+BL17*Main!$L$10</f>
-        <v>409694.44386456523</v>
-      </c>
-      <c r="BN17" s="5">
+        <v>337645.96099560952</v>
+      </c>
+      <c r="BN17" s="12">
         <f>BM17+BM17*Main!$L$10</f>
-        <v>415839.86052253371</v>
-      </c>
-      <c r="BO17" s="5">
+        <v>341022.4206055656</v>
+      </c>
+      <c r="BO17" s="12">
         <f>BN17+BN17*Main!$L$10</f>
-        <v>422077.45843037171</v>
-      </c>
-      <c r="BP17" s="5">
+        <v>344432.64481162123</v>
+      </c>
+      <c r="BP17" s="12">
         <f>BO17+BO17*Main!$L$10</f>
-        <v>428408.6203068273</v>
-      </c>
-      <c r="BQ17" s="5">
+        <v>347876.97125973745</v>
+      </c>
+      <c r="BQ17" s="12">
         <f>BP17+BP17*Main!$L$10</f>
-        <v>434834.7496114297</v>
-      </c>
-      <c r="BR17" s="5">
+        <v>351355.74097233481</v>
+      </c>
+      <c r="BR17" s="12">
         <f>BQ17+BQ17*Main!$L$10</f>
-        <v>441357.27085560112</v>
-      </c>
-      <c r="BS17" s="5">
+        <v>354869.29838205816</v>
+      </c>
+      <c r="BS17" s="12">
         <f>BR17+BR17*Main!$L$10</f>
-        <v>447977.62991843512</v>
-      </c>
-      <c r="BT17" s="5">
+        <v>358417.99136587873</v>
+      </c>
+      <c r="BT17" s="12">
         <f>BS17+BS17*Main!$L$10</f>
-        <v>454697.29436721164</v>
-      </c>
-      <c r="BU17" s="5">
+        <v>362002.17127953749</v>
+      </c>
+      <c r="BU17" s="12">
         <f>BT17+BT17*Main!$L$10</f>
-        <v>461517.75378271984</v>
-      </c>
-      <c r="BV17" s="5">
+        <v>365622.19299233286</v>
+      </c>
+      <c r="BV17" s="12">
         <f>BU17+BU17*Main!$L$10</f>
-        <v>468440.52008946065</v>
-      </c>
-      <c r="BW17" s="5">
+        <v>369278.4149222562</v>
+      </c>
+      <c r="BW17" s="12">
         <f>BV17+BV17*Main!$L$10</f>
-        <v>475467.12789080257</v>
-      </c>
-      <c r="BX17" s="5">
+        <v>372971.19907147874</v>
+      </c>
+      <c r="BX17" s="12">
         <f>BW17+BW17*Main!$L$10</f>
-        <v>482599.13480916462</v>
-      </c>
-      <c r="BY17" s="5">
+        <v>376700.91106219351</v>
+      </c>
+      <c r="BY17" s="12">
         <f>BX17+BX17*Main!$L$10</f>
-        <v>489838.12183130207</v>
-      </c>
-      <c r="BZ17" s="5">
+        <v>380467.92017281544</v>
+      </c>
+      <c r="BZ17" s="12">
         <f>BY17+BY17*Main!$L$10</f>
-        <v>497185.69365877158</v>
-      </c>
-      <c r="CA17" s="5">
+        <v>384272.59937454358</v>
+      </c>
+      <c r="CA17" s="12">
         <f>BZ17+BZ17*Main!$L$10</f>
-        <v>504643.47906365315</v>
-      </c>
-      <c r="CB17" s="5">
+        <v>388115.32536828902</v>
+      </c>
+      <c r="CB17" s="12">
         <f>CA17+CA17*Main!$L$10</f>
-        <v>512213.13124960795</v>
-      </c>
-      <c r="CC17" s="5">
+        <v>391996.47862197191</v>
+      </c>
+      <c r="CC17" s="12">
         <f>CB17+CB17*Main!$L$10</f>
-        <v>519896.32821835205</v>
-      </c>
-      <c r="CD17" s="5">
+        <v>395916.44340819161</v>
+      </c>
+      <c r="CD17" s="12">
         <f>CC17+CC17*Main!$L$10</f>
-        <v>527694.77314162732</v>
-      </c>
-      <c r="CE17" s="5">
+        <v>399875.60784227354</v>
+      </c>
+      <c r="CE17" s="12">
         <f>CD17+CD17*Main!$L$10</f>
-        <v>535610.19473875174</v>
-      </c>
-      <c r="CF17" s="5">
+        <v>403874.36392069625</v>
+      </c>
+      <c r="CF17" s="12">
         <f>CE17+CE17*Main!$L$10</f>
-        <v>543644.34765983303</v>
-      </c>
-      <c r="CG17" s="5">
+        <v>407913.10755990323</v>
+      </c>
+      <c r="CG17" s="12">
         <f>CF17+CF17*Main!$L$10</f>
-        <v>551799.01287473051</v>
-      </c>
-      <c r="CH17" s="5">
+        <v>411992.23863550229</v>
+      </c>
+      <c r="CH17" s="12">
         <f>CG17+CG17*Main!$L$10</f>
-        <v>560075.99806785153</v>
-      </c>
-      <c r="CI17" s="5">
+        <v>416112.16102185729</v>
+      </c>
+      <c r="CI17" s="12">
         <f>CH17+CH17*Main!$L$10</f>
-        <v>568477.13803886925</v>
-      </c>
-      <c r="CJ17" s="5">
+        <v>420273.28263207589</v>
+      </c>
+      <c r="CJ17" s="12">
         <f>CI17+CI17*Main!$L$10</f>
-        <v>577004.29510945233</v>
-      </c>
-      <c r="CK17" s="5">
+        <v>424476.01545839664</v>
+      </c>
+      <c r="CK17" s="12">
         <f>CJ17+CJ17*Main!$L$10</f>
-        <v>585659.35953609413</v>
-      </c>
-      <c r="CL17" s="5">
+        <v>428720.77561298059</v>
+      </c>
+      <c r="CL17" s="12">
         <f>CK17+CK17*Main!$L$10</f>
-        <v>594444.24992913555</v>
-      </c>
-      <c r="CM17" s="5">
+        <v>433007.98336911038</v>
+      </c>
+      <c r="CM17" s="12">
         <f>CL17+CL17*Main!$L$10</f>
-        <v>603360.91367807263</v>
-      </c>
-      <c r="CN17" s="5">
+        <v>437338.06320280151</v>
+      </c>
+      <c r="CN17" s="12">
         <f>CM17+CM17*Main!$L$10</f>
-        <v>612411.32738324371</v>
-      </c>
-      <c r="CO17" s="5">
+        <v>441711.44383482955</v>
+      </c>
+      <c r="CO17" s="12">
         <f>CN17+CN17*Main!$L$10</f>
-        <v>621597.49729399232</v>
-      </c>
-      <c r="CP17" s="5">
+        <v>446128.55827317783</v>
+      </c>
+      <c r="CP17" s="12">
         <f>CO17+CO17*Main!$L$10</f>
-        <v>630921.45975340216</v>
-      </c>
-      <c r="CQ17" s="5">
+        <v>450589.8438559096</v>
+      </c>
+      <c r="CQ17" s="12">
         <f>CP17+CP17*Main!$L$10</f>
-        <v>640385.28164970316</v>
-      </c>
-      <c r="CR17" s="5">
+        <v>455095.74229446868</v>
+      </c>
+      <c r="CR17" s="12">
         <f>CQ17+CQ17*Main!$L$10</f>
-        <v>649991.06087444874</v>
-      </c>
-      <c r="CS17" s="5">
+        <v>459646.69971741334</v>
+      </c>
+      <c r="CS17" s="12">
         <f>CR17+CR17*Main!$L$10</f>
-        <v>659740.92678756546</v>
-      </c>
-      <c r="CT17" s="5">
+        <v>464243.16671458748</v>
+      </c>
+      <c r="CT17" s="12">
         <f>CS17+CS17*Main!$L$10</f>
-        <v>669637.04068937898</v>
-      </c>
-      <c r="CU17" s="5">
+        <v>468885.59838173335</v>
+      </c>
+      <c r="CU17" s="12">
         <f>CT17+CT17*Main!$L$10</f>
-        <v>679681.59629971965</v>
-      </c>
-      <c r="CV17" s="5">
+        <v>473574.45436555066</v>
+      </c>
+      <c r="CV17" s="12">
         <f>CU17+CU17*Main!$L$10</f>
-        <v>689876.82024421543</v>
-      </c>
-      <c r="CW17" s="5">
+        <v>478310.19890920614</v>
+      </c>
+      <c r="CW17" s="12">
         <f>CV17+CV17*Main!$L$10</f>
-        <v>700224.97254787863</v>
-      </c>
-      <c r="CX17" s="5">
+        <v>483093.30089829821</v>
+      </c>
+      <c r="CX17" s="12">
         <f>CW17+CW17*Main!$L$10</f>
-        <v>710728.3471360968</v>
-      </c>
-      <c r="CY17" s="5">
+        <v>487924.23390728119</v>
+      </c>
+      <c r="CY17" s="12">
         <f>CX17+CX17*Main!$L$10</f>
-        <v>721389.27234313823</v>
-      </c>
-      <c r="CZ17" s="5">
+        <v>492803.476246354</v>
+      </c>
+      <c r="CZ17" s="12">
         <f>CY17+CY17*Main!$L$10</f>
-        <v>732210.11142828525</v>
-      </c>
-      <c r="DA17" s="5">
+        <v>497731.51100881753</v>
+      </c>
+      <c r="DA17" s="12">
         <f>CZ17+CZ17*Main!$L$10</f>
-        <v>743193.26309970953</v>
-      </c>
-      <c r="DB17" s="5">
+        <v>502708.82611890568</v>
+      </c>
+      <c r="DB17" s="12">
         <f>DA17+DA17*Main!$L$10</f>
-        <v>754341.16204620514</v>
-      </c>
-      <c r="DC17" s="5">
+        <v>507735.91438009473</v>
+      </c>
+      <c r="DC17" s="12">
         <f>DB17+DB17*Main!$L$10</f>
-        <v>765656.27947689826</v>
-      </c>
-      <c r="DD17" s="5">
+        <v>512813.27352389571</v>
+      </c>
+      <c r="DD17" s="12">
         <f>DC17+DC17*Main!$L$10</f>
-        <v>777141.12366905168</v>
-      </c>
-      <c r="DE17" s="5">
+        <v>517941.40625913464</v>
+      </c>
+      <c r="DE17" s="12">
         <f>DD17+DD17*Main!$L$10</f>
-        <v>788798.24052408745</v>
-      </c>
-      <c r="DF17" s="5">
+        <v>523120.82032172597</v>
+      </c>
+      <c r="DF17" s="12">
         <f>DE17+DE17*Main!$L$10</f>
-        <v>800630.21413194877</v>
-      </c>
-      <c r="DG17" s="5">
+        <v>528352.02852494328</v>
+      </c>
+      <c r="DG17" s="12">
         <f>DF17+DF17*Main!$L$10</f>
-        <v>812639.66734392801</v>
-      </c>
-      <c r="DH17" s="5">
+        <v>533635.54881019273</v>
+      </c>
+      <c r="DH17" s="12">
         <f>DG17+DG17*Main!$L$10</f>
-        <v>824829.26235408697</v>
-      </c>
-      <c r="DI17" s="5">
+        <v>538971.90429829468</v>
+      </c>
+      <c r="DI17" s="12">
         <f>DH17+DH17*Main!$L$10</f>
-        <v>837201.70128939825</v>
-      </c>
-      <c r="DJ17" s="5">
+        <v>544361.62334127759</v>
+      </c>
+      <c r="DJ17" s="12">
         <f>DI17+DI17*Main!$L$10</f>
-        <v>849759.72680873924</v>
-      </c>
-      <c r="DK17" s="5">
+        <v>549805.23957469035</v>
+      </c>
+      <c r="DK17" s="12">
         <f>DJ17+DJ17*Main!$L$10</f>
-        <v>862506.12271087035</v>
-      </c>
-      <c r="DL17" s="5">
+        <v>555303.29197043728</v>
+      </c>
+      <c r="DL17" s="12">
         <f>DK17+DK17*Main!$L$10</f>
-        <v>875443.71455153346</v>
-      </c>
-      <c r="DM17" s="5">
+        <v>560856.32489014161</v>
+      </c>
+      <c r="DM17" s="12">
         <f>DL17+DL17*Main!$L$10</f>
-        <v>888575.37026980647</v>
-      </c>
-      <c r="DN17" s="5">
+        <v>566464.888139043</v>
+      </c>
+      <c r="DN17" s="12">
         <f>DM17+DM17*Main!$L$10</f>
-        <v>901904.00082385354</v>
-      </c>
-      <c r="DO17" s="5">
+        <v>572129.53702043346</v>
+      </c>
+      <c r="DO17" s="12">
         <f>DN17+DN17*Main!$L$10</f>
-        <v>915432.56083621131</v>
-      </c>
-      <c r="DP17" s="5">
+        <v>577850.83239063784</v>
+      </c>
+      <c r="DP17" s="12">
         <f>DO17+DO17*Main!$L$10</f>
-        <v>929164.04924875451</v>
-      </c>
-      <c r="DQ17" s="5">
+        <v>583629.34071454417</v>
+      </c>
+      <c r="DQ17" s="12">
         <f>DP17+DP17*Main!$L$10</f>
-        <v>943101.50998748583</v>
-      </c>
-      <c r="DR17" s="5">
+        <v>589465.6341216896</v>
+      </c>
+      <c r="DR17" s="12">
         <f>DQ17+DQ17*Main!$L$10</f>
-        <v>957248.03263729811</v>
-      </c>
-      <c r="DS17" s="5">
+        <v>595360.29046290647</v>
+      </c>
+      <c r="DS17" s="12">
         <f>DR17+DR17*Main!$L$10</f>
-        <v>971606.75312685757</v>
-      </c>
-      <c r="DT17" s="5">
+        <v>601313.89336753555</v>
+      </c>
+      <c r="DT17" s="12">
         <f>DS17+DS17*Main!$L$10</f>
-        <v>986180.85442376044</v>
-      </c>
-      <c r="DU17" s="5">
+        <v>607327.03230121091</v>
+      </c>
+      <c r="DU17" s="12">
         <f>DT17+DT17*Main!$L$10</f>
-        <v>1000973.5672401169</v>
-      </c>
-      <c r="DV17" s="5">
+        <v>613400.30262422306</v>
+      </c>
+      <c r="DV17" s="12">
         <f>DU17+DU17*Main!$L$10</f>
-        <v>1015988.1707487187</v>
-      </c>
-      <c r="DW17" s="5">
+        <v>619534.30565046531</v>
+      </c>
+      <c r="DW17" s="12">
         <f>DV17+DV17*Main!$L$10</f>
-        <v>1031227.9933099494</v>
-      </c>
-      <c r="DX17" s="5">
+        <v>625729.64870696992</v>
+      </c>
+      <c r="DX17" s="12">
         <f>DW17+DW17*Main!$L$10</f>
-        <v>1046696.4132095986</v>
-      </c>
-      <c r="DY17" s="5">
+        <v>631986.94519403961</v>
+      </c>
+      <c r="DY17" s="12">
         <f>DX17+DX17*Main!$L$10</f>
-        <v>1062396.8594077425</v>
-      </c>
-      <c r="DZ17" s="5">
+        <v>638306.81464598002</v>
+      </c>
+      <c r="DZ17" s="12">
         <f>DY17+DY17*Main!$L$10</f>
-        <v>1078332.8122988585</v>
-      </c>
-      <c r="EA17" s="5">
+        <v>644689.88279243978</v>
+      </c>
+      <c r="EA17" s="12">
         <f>DZ17+DZ17*Main!$L$10</f>
-        <v>1094507.8044833415</v>
-      </c>
-      <c r="EB17" s="5">
+        <v>651136.78162036417</v>
+      </c>
+      <c r="EB17" s="12">
         <f>EA17+EA17*Main!$L$10</f>
-        <v>1110925.4215505917</v>
-      </c>
-      <c r="EC17" s="5">
+        <v>657648.14943656779</v>
+      </c>
+      <c r="EC17" s="12">
         <f>EB17+EB17*Main!$L$10</f>
-        <v>1127589.3028738506</v>
-      </c>
-      <c r="ED17" s="5">
+        <v>664224.63093093352</v>
+      </c>
+      <c r="ED17" s="12">
         <f>EC17+EC17*Main!$L$10</f>
-        <v>1144503.1424169582</v>
-      </c>
-      <c r="EE17" s="5">
+        <v>670866.8772402429</v>
+      </c>
+      <c r="EE17" s="12">
         <f>ED17+ED17*Main!$L$10</f>
-        <v>1161670.6895532126</v>
-      </c>
-      <c r="EF17" s="5">
+        <v>677575.54601264535</v>
+      </c>
+      <c r="EF17" s="12">
         <f>EE17+EE17*Main!$L$10</f>
-        <v>1179095.7498965107</v>
-      </c>
-      <c r="EG17" s="5">
+        <v>684351.3014727718</v>
+      </c>
+      <c r="EG17" s="12">
         <f>EF17+EF17*Main!$L$10</f>
-        <v>1196782.1861449585</v>
-      </c>
-      <c r="EH17" s="5">
+        <v>691194.81448749953</v>
+      </c>
+      <c r="EH17" s="12">
         <f>EG17+EG17*Main!$L$10</f>
-        <v>1214733.9189371329</v>
-      </c>
-      <c r="EI17" s="5">
+        <v>698106.76263237454</v>
+      </c>
+      <c r="EI17" s="12">
         <f>EH17+EH17*Main!$L$10</f>
-        <v>1232954.92772119</v>
-      </c>
-      <c r="EJ17" s="5">
+        <v>705087.83025869832</v>
+      </c>
+      <c r="EJ17" s="12">
         <f>EI17+EI17*Main!$L$10</f>
-        <v>1251449.2516370078</v>
-      </c>
-      <c r="EK17" s="5">
+        <v>712138.70856128528</v>
+      </c>
+      <c r="EK17" s="12">
         <f>EJ17+EJ17*Main!$L$10</f>
-        <v>1270220.9904115628</v>
-      </c>
-      <c r="EL17" s="5">
+        <v>719260.09564689815</v>
+      </c>
+      <c r="EL17" s="12">
         <f>EK17+EK17*Main!$L$10</f>
-        <v>1289274.3052677363</v>
-      </c>
-      <c r="EM17" s="5">
+        <v>726452.69660336711</v>
+      </c>
+      <c r="EM17" s="12">
         <f>EL17+EL17*Main!$L$10</f>
-        <v>1308613.4198467524</v>
-      </c>
-      <c r="EN17" s="5">
+        <v>733717.22356940072</v>
+      </c>
+      <c r="EN17" s="12">
         <f>EM17+EM17*Main!$L$10</f>
-        <v>1328242.6211444538</v>
-      </c>
-      <c r="EO17" s="5">
+        <v>741054.39580509474</v>
+      </c>
+      <c r="EO17" s="12">
         <f>EN17+EN17*Main!$L$10</f>
-        <v>1348166.2604616205</v>
-      </c>
-      <c r="EP17" s="5">
+        <v>748464.93976314564</v>
+      </c>
+      <c r="EP17" s="12">
         <f>EO17+EO17*Main!$L$10</f>
-        <v>1368388.7543685448</v>
-      </c>
-      <c r="EQ17" s="5">
+        <v>755949.58916077705</v>
+      </c>
+      <c r="EQ17" s="12">
         <f>EP17+EP17*Main!$L$10</f>
-        <v>1388914.5856840729</v>
-      </c>
-      <c r="ER17" s="5">
+        <v>763509.08505238476</v>
+      </c>
+      <c r="ER17" s="12">
         <f>EQ17+EQ17*Main!$L$10</f>
-        <v>1409748.304469334</v>
-      </c>
-      <c r="ES17" s="5">
+        <v>771144.17590290867</v>
+      </c>
+      <c r="ES17" s="12">
         <f>ER17+ER17*Main!$L$10</f>
-        <v>1430894.5290363741</v>
-      </c>
-    </row>
-    <row r="18" spans="2:149">
+        <v>778855.61766193772</v>
+      </c>
+      <c r="ET17" s="12">
+        <f>ES17+ES17*Main!$L$10</f>
+        <v>786644.17383855709</v>
+      </c>
+      <c r="EU17" s="12">
+        <f>ET17+ET17*Main!$L$10</f>
+        <v>794510.61557694268</v>
+      </c>
+      <c r="EV17" s="12">
+        <f>EU17+EU17*Main!$L$10</f>
+        <v>802455.72173271212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:152">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1979,26 +2088,32 @@
       <c r="K18">
         <v>3.32</v>
       </c>
-      <c r="M18">
+      <c r="L18" s="13">
+        <f>L17/L19</f>
+        <v>2.6847656368918931</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="P18">
         <v>5.0599999999999996</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>5.76</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>8.0500000000000007</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>9.65</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>9.68</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>11.8</v>
       </c>
     </row>
-    <row r="19" spans="2:149">
+    <row r="19" spans="2:152">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2029,26 +2144,31 @@
       <c r="K19" s="5">
         <v>7434</v>
       </c>
-      <c r="M19" s="5">
+      <c r="L19" s="5">
+        <v>7400</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="P19" s="5">
         <v>7753</v>
       </c>
-      <c r="N19" s="5">
+      <c r="Q19" s="5">
         <v>7683</v>
       </c>
-      <c r="O19" s="5">
+      <c r="R19" s="5">
         <v>7608</v>
       </c>
-      <c r="P19" s="5">
+      <c r="S19" s="5">
         <v>7540</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="T19" s="5">
         <v>7472</v>
       </c>
-      <c r="R19" s="5">
+      <c r="U19" s="5">
         <v>7469</v>
       </c>
     </row>
-    <row r="21" spans="2:149">
+    <row r="21" spans="2:152">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -2072,46 +2192,58 @@
         <f>K5/G5-1</f>
         <v>0.16044729904276589</v>
       </c>
-      <c r="N21" s="6">
-        <f t="shared" ref="N21:Q21" si="3">N5/M5-1</f>
+      <c r="L21" s="6">
+        <f>L5/H5-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="M21" s="6">
+        <f>M5/I5-1</f>
+        <v>0.12250000000000028</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21:T21" si="3">Q5/P5-1</f>
         <v>0.13645574247276371</v>
       </c>
-      <c r="O21" s="6">
+      <c r="R21" s="6">
         <f t="shared" si="3"/>
         <v>0.17531727441177503</v>
       </c>
-      <c r="P21" s="6">
+      <c r="S21" s="6">
         <f t="shared" si="3"/>
         <v>0.17956070629670173</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="T21" s="6">
         <f t="shared" si="3"/>
         <v>6.8820295556564215E-2</v>
       </c>
-      <c r="R21" s="6">
-        <f>R5/Q5-1</f>
+      <c r="U21" s="6">
+        <f>U5/T5-1</f>
         <v>0.1566996201307127</v>
       </c>
-      <c r="S21" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="U21" s="6">
+      <c r="V21" s="6">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="X21" s="6">
         <v>0.12</v>
       </c>
-      <c r="V21" s="6">
+      <c r="Y21" s="6">
         <v>0.1</v>
       </c>
-      <c r="W21" s="6">
+      <c r="Z21" s="6">
         <v>0.08</v>
       </c>
-      <c r="X21" s="6">
+      <c r="AA21" s="6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="2:149">
+      <c r="AB21" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:152">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -2142,26 +2274,33 @@
       <c r="K22" s="6">
         <v>0.69350000000000001</v>
       </c>
+      <c r="L22" s="6">
+        <v>0.69350000000000001</v>
+      </c>
       <c r="M22" s="6">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="P22" s="6">
         <v>0.65900000000000003</v>
       </c>
-      <c r="N22" s="6">
+      <c r="Q22" s="6">
         <v>0.67779999999999996</v>
       </c>
-      <c r="O22" s="6">
+      <c r="R22" s="6">
         <v>0.68930000000000002</v>
       </c>
-      <c r="P22" s="6">
+      <c r="S22" s="6">
         <v>0.68400000000000005</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="T22" s="6">
         <v>0.68920000000000003</v>
       </c>
-      <c r="R22" s="6">
+      <c r="U22" s="6">
         <v>0.68920000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:149">
+    <row r="23" spans="2:152">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -2192,26 +2331,31 @@
       <c r="K23" s="6">
         <v>0.18509999999999999</v>
       </c>
-      <c r="M23" s="6">
+      <c r="L23" s="6">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="P23" s="6">
         <v>0.1018</v>
       </c>
-      <c r="N23" s="6">
+      <c r="Q23" s="6">
         <v>0.1651</v>
       </c>
-      <c r="O23" s="6">
+      <c r="R23" s="6">
         <v>0.13830000000000001</v>
       </c>
-      <c r="P23" s="6">
+      <c r="S23" s="6">
         <v>0.13109999999999999</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="T23" s="6">
         <v>0.1898</v>
       </c>
-      <c r="R23" s="6">
+      <c r="U23" s="6">
         <v>0.1898</v>
       </c>
     </row>
-    <row r="24" spans="2:149">
+    <row r="24" spans="2:152">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -2242,63 +2386,72 @@
       <c r="K24" s="6">
         <v>0.37609999999999999</v>
       </c>
-      <c r="M24" s="6">
+      <c r="L24" s="6">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="P24" s="6">
         <v>0.31180000000000002</v>
       </c>
-      <c r="N24" s="6">
+      <c r="Q24" s="6">
         <v>0.30959999999999999</v>
       </c>
-      <c r="O24" s="6">
+      <c r="R24" s="6">
         <v>0.36449999999999999</v>
       </c>
-      <c r="P24" s="6">
+      <c r="S24" s="6">
         <v>0.3669</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="T24" s="6">
         <v>0.34150000000000003</v>
       </c>
-      <c r="R24" s="6">
+      <c r="U24" s="6">
         <v>0.35959999999999998</v>
       </c>
-      <c r="S24" s="6">
-        <f>R24</f>
+      <c r="V24" s="6">
+        <f>U24</f>
         <v>0.35959999999999998</v>
       </c>
-      <c r="T24" s="6">
-        <f>S24</f>
+      <c r="W24" s="6">
+        <f>V24</f>
         <v>0.35959999999999998</v>
       </c>
-      <c r="U24" s="7">
+      <c r="X24" s="7">
         <v>0.4</v>
       </c>
-      <c r="V24" s="7">
+      <c r="Y24" s="7">
         <v>0.45</v>
       </c>
-      <c r="W24" s="7">
+      <c r="Z24" s="7">
         <v>0.5</v>
       </c>
-      <c r="X24" s="7">
+      <c r="AA24" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:149">
+      <c r="AB24" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:152">
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="6">
+      <c r="Q25" s="6">
         <v>0.14180000000000001</v>
       </c>
-      <c r="O25" s="6">
+      <c r="R25" s="6">
         <v>7.51E-2</v>
       </c>
-      <c r="P25" s="6">
+      <c r="S25" s="6">
         <v>0.1832</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="T25" s="6">
         <v>0.1095</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="main" xr:uid="{4CBEF97D-5F46-7345-BF1E-067FE67A7F70}"/>
   </hyperlinks>

--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDB1E8-B9A3-DB42-B8F9-5C216E291F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF0A17-B582-7943-8462-074958342DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{41F326A8-C1D6-664F-916E-52E4243E15BE}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14160" windowHeight="18380" activeTab="1" xr2:uid="{41F326A8-C1D6-664F-916E-52E4243E15BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Price</t>
   </si>
@@ -129,12 +129,6 @@
     <t>R&amp;D growth%</t>
   </si>
   <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
     <t>Q123</t>
   </si>
   <si>
@@ -160,6 +154,15 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +209,24 @@
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +251,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -244,7 +265,14 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -582,9 +610,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF1D819-5954-344C-8373-E4F4E0D3146A}">
-  <dimension ref="K2:L15"/>
+  <dimension ref="K1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -593,7 +621,12 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:12">
+    <row r="1" spans="11:13">
+      <c r="M1" s="19">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2" spans="11:13">
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,15 +634,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="11:12">
+    <row r="3" spans="11:13">
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="10">
         <v>7434</v>
       </c>
-    </row>
-    <row r="4" spans="11:12">
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13">
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
@@ -618,42 +654,48 @@
         <v>3092544</v>
       </c>
     </row>
-    <row r="5" spans="11:12">
+    <row r="5" spans="11:13">
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="10">
-        <f>20840+57588+1626</f>
-        <v>80054</v>
-      </c>
-    </row>
-    <row r="6" spans="11:12">
+        <f>17428+54073+909</f>
+        <v>72410</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13">
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="10">
-        <f>0+2249+42868</f>
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="7" spans="11:12">
+        <f>0+5248+3972</f>
+        <v>9220</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13">
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="10">
         <f>L4-L5+L6</f>
-        <v>3057607</v>
-      </c>
-    </row>
-    <row r="8" spans="11:12">
+        <v>3029354</v>
+      </c>
+    </row>
+    <row r="8" spans="11:13">
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="11:12">
+    <row r="9" spans="11:13">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="11:12">
+    <row r="10" spans="11:13">
       <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
@@ -661,7 +703,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="11:12">
+    <row r="11" spans="11:13">
       <c r="K11" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,28 +711,28 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="11:12">
+    <row r="12" spans="11:13">
       <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="2">
         <f>NPV(L11,Model!V17:EV17)+L5-L6</f>
-        <v>3372186.2585279215</v>
-      </c>
-    </row>
-    <row r="13" spans="11:12">
+        <v>3447530.0627269018</v>
+      </c>
+    </row>
+    <row r="13" spans="11:13">
       <c r="K13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="3">
         <f>L12/L3</f>
-        <v>453.61666108796362</v>
-      </c>
-    </row>
-    <row r="15" spans="11:12">
+        <v>463.75168990138576</v>
+      </c>
+    </row>
+    <row r="15" spans="11:13">
       <c r="L15" s="8">
         <f>L13/L2-1</f>
-        <v>9.0424666076835525E-2</v>
+        <v>0.11478771610910043</v>
       </c>
     </row>
   </sheetData>
@@ -700,21 +742,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1A3BED-D77E-A843-A663-0A377A022B5F}">
-  <dimension ref="A1:EV25"/>
+  <dimension ref="A1:EV30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="3" spans="1:29">
+      <c r="L3" s="19">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -748,6 +800,9 @@
       <c r="M4" t="s">
         <v>40</v>
       </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
       <c r="P4">
         <v>2019</v>
       </c>
@@ -787,8 +842,11 @@
       <c r="AB4">
         <v>2031</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="11" customFormat="1">
+      <c r="AC4">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="11" customFormat="1">
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
@@ -820,14 +878,16 @@
         <v>65585</v>
       </c>
       <c r="L5" s="12">
-        <f>H5*(1.11)</f>
-        <v>68842.200000000012</v>
+        <v>69632</v>
       </c>
       <c r="M5" s="12">
-        <f>I5*1.1225</f>
-        <v>69435.60500000001</v>
-      </c>
-      <c r="N5" s="12"/>
+        <f>I5*1.129</f>
+        <v>69837.682000000001</v>
+      </c>
+      <c r="N5" s="12">
+        <f>J5*1.13</f>
+        <v>73141.509999999995</v>
+      </c>
       <c r="P5" s="12">
         <v>125843</v>
       </c>
@@ -847,35 +907,39 @@
         <v>245122</v>
       </c>
       <c r="V5" s="12">
-        <f>U5+U5*V21</f>
-        <v>278556.64079999999</v>
+        <f>SUM(K5:N5)</f>
+        <v>278196.19199999998</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5:AB5" si="0">V5+V5*W21</f>
-        <v>318557.37441887998</v>
+        <f t="shared" ref="W5:AC5" si="0">V5+V5*W21</f>
+        <v>318145.1651712</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" si="0"/>
-        <v>356784.25934914558</v>
+        <v>356322.58499174402</v>
       </c>
       <c r="Y5" s="12">
         <f t="shared" si="0"/>
-        <v>392462.68528406014</v>
+        <v>391954.8434909184</v>
       </c>
       <c r="Z5" s="12">
         <f t="shared" si="0"/>
-        <v>423859.70010678493</v>
+        <v>423311.23097019189</v>
       </c>
       <c r="AA5" s="12">
         <f t="shared" si="0"/>
-        <v>445052.68511212419</v>
+        <v>444476.79251870146</v>
       </c>
       <c r="AB5" s="12">
         <f t="shared" si="0"/>
-        <v>467305.31936773041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>466700.63214463653</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="0"/>
+        <v>480701.65110897564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -907,14 +971,16 @@
         <v>20099</v>
       </c>
       <c r="L6" s="5">
-        <f>H6*1.11</f>
-        <v>21781.530000000002</v>
+        <v>21799</v>
       </c>
       <c r="M6" s="5">
         <f>I6*1.1225</f>
         <v>20771.862499999999</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5">
+        <f>J6*1.12</f>
+        <v>22046.080000000002</v>
+      </c>
       <c r="P6" s="5">
         <v>42910</v>
       </c>
@@ -933,67 +999,84 @@
       <c r="U6" s="5">
         <v>74114</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="B7" t="s">
+      <c r="V6" s="20">
+        <f>SUM(K6:N6)</f>
+        <v>84715.942500000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="13" customFormat="1">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="14">
         <v>34670</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="14">
         <v>35259</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="14">
         <v>36729</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="14">
         <v>39394</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="14">
         <v>40215</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="14">
         <v>42397</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="14">
         <v>43353</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="14">
         <v>45043</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="14">
         <v>45486</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="14">
         <f>L5-L6</f>
-        <v>47060.670000000013</v>
-      </c>
-      <c r="M7" s="5">
+        <v>47833</v>
+      </c>
+      <c r="M7" s="14">
         <f>M5-M6</f>
-        <v>48663.742500000008</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="P7" s="5">
+        <v>49065.819499999998</v>
+      </c>
+      <c r="N7" s="14">
+        <f>N5-N6</f>
+        <v>51095.429999999993</v>
+      </c>
+      <c r="P7" s="14">
+        <f>P5-P6</f>
         <v>82933</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="14">
+        <f t="shared" ref="Q7:V7" si="1">Q5-Q6</f>
         <v>96937</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="14">
+        <f t="shared" si="1"/>
         <v>115856</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="14">
+        <f t="shared" si="1"/>
         <v>135620</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="14">
+        <f t="shared" si="1"/>
         <v>146052</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="14">
+        <f t="shared" si="1"/>
         <v>171008</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="V7" s="14">
+        <f t="shared" si="1"/>
+        <v>193480.24949999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1025,11 +1108,16 @@
         <v>7544</v>
       </c>
       <c r="L8" s="5">
-        <f>K8</f>
-        <v>7544</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+        <v>7917</v>
+      </c>
+      <c r="M8" s="5">
+        <f>I8*1.1</f>
+        <v>8418.3000000000011</v>
+      </c>
+      <c r="N8" s="5">
+        <f>J8*1.1</f>
+        <v>8861.6</v>
+      </c>
       <c r="P8" s="5">
         <v>16876</v>
       </c>
@@ -1048,8 +1136,12 @@
       <c r="U8" s="5">
         <v>29510</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="V8" s="20">
+        <f>SUM(K8:N8)</f>
+        <v>32740.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1081,11 +1173,16 @@
         <v>5717</v>
       </c>
       <c r="L9" s="5">
-        <f>K9</f>
-        <v>5717</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+        <v>6440</v>
+      </c>
+      <c r="M9" s="5">
+        <f>I9*1.05</f>
+        <v>6517.35</v>
+      </c>
+      <c r="N9" s="5">
+        <f>J9*1.05</f>
+        <v>7156.8</v>
+      </c>
       <c r="P9" s="5">
         <v>18213</v>
       </c>
@@ -1104,8 +1201,12 @@
       <c r="U9" s="5">
         <v>24456</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="V9" s="20">
+        <f>SUM(K9:N9)</f>
+        <v>25831.149999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1137,11 +1238,16 @@
         <v>1673</v>
       </c>
       <c r="L10" s="5">
-        <f>K10</f>
-        <v>1673</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+        <v>1823</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10</f>
+        <v>1823</v>
+      </c>
+      <c r="N10" s="5">
+        <f>J10*0.95</f>
+        <v>2133.6999999999998</v>
+      </c>
       <c r="P10" s="5">
         <v>4885</v>
       </c>
@@ -1160,120 +1266,156 @@
       <c r="U10" s="5">
         <v>7609</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="B11" t="s">
+      <c r="V10" s="20">
+        <f>SUM(K10:N10)</f>
+        <v>7452.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="13" customFormat="1">
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="14">
         <v>13152</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="14">
         <v>14860</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="14">
         <v>14377</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="14">
         <v>15140</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="14">
         <v>13320</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="14">
         <v>15365</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="14">
         <v>15772</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="14">
         <v>17118</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="14">
         <v>14934</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="14">
         <f>SUM(L8:L10)</f>
-        <v>14934</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="P11" s="5">
+        <v>16180</v>
+      </c>
+      <c r="M11" s="14">
+        <f>SUM(M8:M10)</f>
+        <v>16758.650000000001</v>
+      </c>
+      <c r="N11" s="14">
+        <f>SUM(N8:N10)</f>
+        <v>18152.100000000002</v>
+      </c>
+      <c r="P11" s="14">
+        <f>SUM(P8:P10)</f>
         <v>39974</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="14">
+        <f t="shared" ref="Q11:V11" si="2">SUM(Q8:Q10)</f>
         <v>43978</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="14">
+        <f t="shared" si="2"/>
         <v>45940</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="14">
+        <f t="shared" si="2"/>
         <v>52237</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="14">
+        <f t="shared" si="2"/>
         <v>57529</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="14">
+        <f t="shared" si="2"/>
         <v>61575</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="B12" t="s">
+      <c r="V11" s="14">
+        <f t="shared" si="2"/>
+        <v>66024.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="13" customFormat="1">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="14">
         <v>21518</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="14">
         <v>20399</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="14">
         <v>22352</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="14">
         <v>24254</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="14">
         <v>26895</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="14">
         <v>27032</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="14">
         <v>27581</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="14">
         <v>27925</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="14">
         <v>30552</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="14">
         <f>L7-L11</f>
-        <v>32126.670000000013</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="P12" s="5">
+        <v>31653</v>
+      </c>
+      <c r="M12" s="14">
+        <f>M7-M11</f>
+        <v>32307.169499999996</v>
+      </c>
+      <c r="N12" s="14">
+        <f>N7-N11</f>
+        <v>32943.329999999987</v>
+      </c>
+      <c r="P12" s="14">
+        <f>P7-P11</f>
         <v>42959</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="14">
+        <f t="shared" ref="Q12:V12" si="3">Q7-Q11</f>
         <v>52959</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="14">
+        <f t="shared" si="3"/>
         <v>69916</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="14">
+        <f t="shared" si="3"/>
         <v>83383</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="14">
+        <f t="shared" si="3"/>
         <v>88523</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="14">
+        <f t="shared" si="3"/>
         <v>109433</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="V12" s="14">
+        <f t="shared" si="3"/>
+        <v>127455.49949999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1305,8 +1447,7 @@
         <v>-283</v>
       </c>
       <c r="L13">
-        <f>K13</f>
-        <v>-283</v>
+        <v>-2288</v>
       </c>
       <c r="P13">
         <v>729</v>
@@ -1326,64 +1467,83 @@
       <c r="U13" s="5">
         <v>-1646</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="B14" t="s">
+      <c r="V13" s="5">
+        <v>-1646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="13" customFormat="1">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="14">
         <v>21587</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="14">
         <v>20339</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="14">
         <v>22673</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="14">
         <v>24712</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="14">
         <v>27284</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="14">
         <v>26526</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="14">
         <v>26727</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="14">
         <v>27250</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="14">
         <v>30269</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="14">
         <f>SUM(L12:L13)</f>
-        <v>31843.670000000013</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="P14" s="5">
+        <v>29365</v>
+      </c>
+      <c r="M14" s="14">
+        <f>SUM(M12:M13)</f>
+        <v>32307.169499999996</v>
+      </c>
+      <c r="N14" s="14">
+        <f>SUM(N12:N13)</f>
+        <v>32943.329999999987</v>
+      </c>
+      <c r="P14" s="14">
+        <f>SUM(P12:P13)</f>
         <v>43688</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="14">
+        <f t="shared" ref="Q14:V14" si="4">SUM(Q12:Q13)</f>
         <v>53036</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="14">
+        <f t="shared" si="4"/>
         <v>71102</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="14">
+        <f t="shared" si="4"/>
         <v>83716</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="14">
+        <f t="shared" si="4"/>
         <v>89311</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="14">
+        <f t="shared" si="4"/>
         <v>107787</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="V14" s="14">
+        <f t="shared" si="4"/>
+        <v>125809.49949999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1415,11 +1575,16 @@
         <v>5602</v>
       </c>
       <c r="L15" s="5">
-        <f>L14*K24</f>
-        <v>11976.404287000005</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+        <v>5257</v>
+      </c>
+      <c r="M15" s="5">
+        <f>M14*L23</f>
+        <v>5783.714968891537</v>
+      </c>
+      <c r="N15" s="5">
+        <f>N14*M23</f>
+        <v>5897.6021048867678</v>
+      </c>
       <c r="P15" s="5">
         <v>4448</v>
       </c>
@@ -1438,8 +1603,12 @@
       <c r="U15" s="5">
         <v>19651</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="V15" s="20">
+        <f>SUM(K15:N15)</f>
+        <v>22540.317073778308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1477,640 +1646,696 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:152" s="11" customFormat="1">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:152" s="15" customFormat="1">
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="16">
         <v>21421</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="16">
         <v>16425</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
         <v>18299</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="16">
         <v>16216</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="16">
         <v>22291</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="16">
         <v>21870</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="16">
         <v>21939</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="16">
         <v>22036</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="16">
         <v>24667</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="16">
         <f>L14-L15</f>
-        <v>19867.265713000008</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="P17" s="12">
+        <v>24108</v>
+      </c>
+      <c r="M17" s="16">
+        <f>M14-M15</f>
+        <v>26523.454531108458</v>
+      </c>
+      <c r="N17" s="16">
+        <f>N14-N15</f>
+        <v>27045.727895113218</v>
+      </c>
+      <c r="P17" s="16">
+        <f>P14-P15</f>
         <v>39240</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="16">
+        <f t="shared" ref="Q17:V17" si="5">Q14-Q15</f>
         <v>44281</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="16">
+        <f t="shared" si="5"/>
         <v>61271</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="16">
+        <f t="shared" si="5"/>
         <v>72738</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="16">
+        <f t="shared" si="5"/>
         <v>72361</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="16">
+        <f t="shared" si="5"/>
         <v>88136</v>
       </c>
-      <c r="V17" s="12">
-        <f>V5*V24</f>
-        <v>100168.96803167999</v>
-      </c>
-      <c r="W17" s="12">
-        <f t="shared" ref="W17:AB17" si="1">W5*W24</f>
-        <v>114553.23184102924</v>
-      </c>
-      <c r="X17" s="12">
-        <f t="shared" si="1"/>
-        <v>142713.70373965823</v>
-      </c>
-      <c r="Y17" s="12">
-        <f t="shared" si="1"/>
-        <v>176608.20837782708</v>
-      </c>
-      <c r="Z17" s="12">
-        <f t="shared" si="1"/>
-        <v>211929.85005339247</v>
-      </c>
-      <c r="AA17" s="12">
-        <f t="shared" si="1"/>
-        <v>222526.3425560621</v>
-      </c>
-      <c r="AB17" s="12">
-        <f t="shared" si="1"/>
-        <v>233652.6596838652</v>
-      </c>
-      <c r="AC17" s="12">
-        <f>AB17+AB17*Main!$L$10</f>
-        <v>235989.18628070387</v>
-      </c>
-      <c r="AD17" s="12">
+      <c r="V17" s="16">
+        <f t="shared" si="5"/>
+        <v>103269.18242622167</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" ref="W17:AC17" si="6">W5*W24</f>
+        <v>114392.18951187115</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="6"/>
+        <v>142529.0339966976</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="6"/>
+        <v>176379.67957091329</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="6"/>
+        <v>211655.61548509594</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="6"/>
+        <v>222238.39625935073</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="6"/>
+        <v>233350.31607231827</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="6"/>
+        <v>240350.82555448782</v>
+      </c>
+      <c r="AD17" s="16">
         <f>AC17+AC17*Main!$L$10</f>
-        <v>238349.07814351091</v>
-      </c>
-      <c r="AE17" s="12">
+        <v>242754.33381003269</v>
+      </c>
+      <c r="AE17" s="16">
         <f>AD17+AD17*Main!$L$10</f>
-        <v>240732.56892494601</v>
-      </c>
-      <c r="AF17" s="12">
+        <v>245181.87714813303</v>
+      </c>
+      <c r="AF17" s="16">
         <f>AE17+AE17*Main!$L$10</f>
-        <v>243139.89461419548</v>
-      </c>
-      <c r="AG17" s="12">
+        <v>247633.69591961437</v>
+      </c>
+      <c r="AG17" s="16">
         <f>AF17+AF17*Main!$L$10</f>
-        <v>245571.29356033742</v>
-      </c>
-      <c r="AH17" s="12">
+        <v>250110.03287881051</v>
+      </c>
+      <c r="AH17" s="16">
         <f>AG17+AG17*Main!$L$10</f>
-        <v>248027.00649594079</v>
-      </c>
-      <c r="AI17" s="12">
+        <v>252611.13320759861</v>
+      </c>
+      <c r="AI17" s="16">
         <f>AH17+AH17*Main!$L$10</f>
-        <v>250507.27656090021</v>
-      </c>
-      <c r="AJ17" s="12">
+        <v>255137.2445396746</v>
+      </c>
+      <c r="AJ17" s="16">
         <f>AI17+AI17*Main!$L$10</f>
-        <v>253012.34932650923</v>
-      </c>
-      <c r="AK17" s="12">
+        <v>257688.61698507136</v>
+      </c>
+      <c r="AK17" s="16">
         <f>AJ17+AJ17*Main!$L$10</f>
-        <v>255542.47281977432</v>
-      </c>
-      <c r="AL17" s="12">
+        <v>260265.50315492207</v>
+      </c>
+      <c r="AL17" s="16">
         <f>AK17+AK17*Main!$L$10</f>
-        <v>258097.89754797207</v>
-      </c>
-      <c r="AM17" s="12">
+        <v>262868.15818647132</v>
+      </c>
+      <c r="AM17" s="16">
         <f>AL17+AL17*Main!$L$10</f>
-        <v>260678.87652345179</v>
-      </c>
-      <c r="AN17" s="12">
+        <v>265496.83976833604</v>
+      </c>
+      <c r="AN17" s="16">
         <f>AM17+AM17*Main!$L$10</f>
-        <v>263285.66528868629</v>
-      </c>
-      <c r="AO17" s="12">
+        <v>268151.80816601939</v>
+      </c>
+      <c r="AO17" s="16">
         <f>AN17+AN17*Main!$L$10</f>
-        <v>265918.52194157313</v>
-      </c>
-      <c r="AP17" s="12">
+        <v>270833.32624767959</v>
+      </c>
+      <c r="AP17" s="16">
         <f>AO17+AO17*Main!$L$10</f>
-        <v>268577.70716098888</v>
-      </c>
-      <c r="AQ17" s="12">
+        <v>273541.65951015637</v>
+      </c>
+      <c r="AQ17" s="16">
         <f>AP17+AP17*Main!$L$10</f>
-        <v>271263.48423259874</v>
-      </c>
-      <c r="AR17" s="12">
+        <v>276277.07610525796</v>
+      </c>
+      <c r="AR17" s="16">
         <f>AQ17+AQ17*Main!$L$10</f>
-        <v>273976.11907492473</v>
-      </c>
-      <c r="AS17" s="12">
+        <v>279039.84686631052</v>
+      </c>
+      <c r="AS17" s="16">
         <f>AR17+AR17*Main!$L$10</f>
-        <v>276715.88026567397</v>
-      </c>
-      <c r="AT17" s="12">
+        <v>281830.24533497362</v>
+      </c>
+      <c r="AT17" s="16">
         <f>AS17+AS17*Main!$L$10</f>
-        <v>279483.03906833072</v>
-      </c>
-      <c r="AU17" s="12">
+        <v>284648.54778832337</v>
+      </c>
+      <c r="AU17" s="16">
         <f>AT17+AT17*Main!$L$10</f>
-        <v>282277.86945901404</v>
-      </c>
-      <c r="AV17" s="12">
+        <v>287495.03326620662</v>
+      </c>
+      <c r="AV17" s="16">
         <f>AU17+AU17*Main!$L$10</f>
-        <v>285100.64815360418</v>
-      </c>
-      <c r="AW17" s="12">
+        <v>290369.98359886871</v>
+      </c>
+      <c r="AW17" s="16">
         <f>AV17+AV17*Main!$L$10</f>
-        <v>287951.65463514021</v>
-      </c>
-      <c r="AX17" s="12">
+        <v>293273.6834348574</v>
+      </c>
+      <c r="AX17" s="16">
         <f>AW17+AW17*Main!$L$10</f>
-        <v>290831.17118149163</v>
-      </c>
-      <c r="AY17" s="12">
+        <v>296206.42026920599</v>
+      </c>
+      <c r="AY17" s="16">
         <f>AX17+AX17*Main!$L$10</f>
-        <v>293739.48289330653</v>
-      </c>
-      <c r="AZ17" s="12">
+        <v>299168.48447189806</v>
+      </c>
+      <c r="AZ17" s="16">
         <f>AY17+AY17*Main!$L$10</f>
-        <v>296676.87772223959</v>
-      </c>
-      <c r="BA17" s="12">
+        <v>302160.16931661702</v>
+      </c>
+      <c r="BA17" s="16">
         <f>AZ17+AZ17*Main!$L$10</f>
-        <v>299643.64649946196</v>
-      </c>
-      <c r="BB17" s="12">
+        <v>305181.7710097832</v>
+      </c>
+      <c r="BB17" s="16">
         <f>BA17+BA17*Main!$L$10</f>
-        <v>302640.08296445658</v>
-      </c>
-      <c r="BC17" s="12">
+        <v>308233.58871988102</v>
+      </c>
+      <c r="BC17" s="16">
         <f>BB17+BB17*Main!$L$10</f>
-        <v>305666.48379410116</v>
-      </c>
-      <c r="BD17" s="12">
+        <v>311315.92460707983</v>
+      </c>
+      <c r="BD17" s="16">
         <f>BC17+BC17*Main!$L$10</f>
-        <v>308723.14863204217</v>
-      </c>
-      <c r="BE17" s="12">
+        <v>314429.0838531506</v>
+      </c>
+      <c r="BE17" s="16">
         <f>BD17+BD17*Main!$L$10</f>
-        <v>311810.38011836261</v>
-      </c>
-      <c r="BF17" s="12">
+        <v>317573.37469168211</v>
+      </c>
+      <c r="BF17" s="16">
         <f>BE17+BE17*Main!$L$10</f>
-        <v>314928.48391954624</v>
-      </c>
-      <c r="BG17" s="12">
+        <v>320749.10843859892</v>
+      </c>
+      <c r="BG17" s="16">
         <f>BF17+BF17*Main!$L$10</f>
-        <v>318077.76875874173</v>
-      </c>
-      <c r="BH17" s="12">
+        <v>323956.59952298494</v>
+      </c>
+      <c r="BH17" s="16">
         <f>BG17+BG17*Main!$L$10</f>
-        <v>321258.54644632916</v>
-      </c>
-      <c r="BI17" s="12">
+        <v>327196.16551821481</v>
+      </c>
+      <c r="BI17" s="16">
         <f>BH17+BH17*Main!$L$10</f>
-        <v>324471.13191079244</v>
-      </c>
-      <c r="BJ17" s="12">
+        <v>330468.12717339693</v>
+      </c>
+      <c r="BJ17" s="16">
         <f>BI17+BI17*Main!$L$10</f>
-        <v>327715.84322990035</v>
-      </c>
-      <c r="BK17" s="12">
+        <v>333772.80844513088</v>
+      </c>
+      <c r="BK17" s="16">
         <f>BJ17+BJ17*Main!$L$10</f>
-        <v>330993.00166219933</v>
-      </c>
-      <c r="BL17" s="12">
+        <v>337110.53652958217</v>
+      </c>
+      <c r="BL17" s="16">
         <f>BK17+BK17*Main!$L$10</f>
-        <v>334302.93167882133</v>
-      </c>
-      <c r="BM17" s="12">
+        <v>340481.641894878</v>
+      </c>
+      <c r="BM17" s="16">
         <f>BL17+BL17*Main!$L$10</f>
-        <v>337645.96099560952</v>
-      </c>
-      <c r="BN17" s="12">
+        <v>343886.45831382676</v>
+      </c>
+      <c r="BN17" s="16">
         <f>BM17+BM17*Main!$L$10</f>
-        <v>341022.4206055656</v>
-      </c>
-      <c r="BO17" s="12">
+        <v>347325.32289696502</v>
+      </c>
+      <c r="BO17" s="16">
         <f>BN17+BN17*Main!$L$10</f>
-        <v>344432.64481162123</v>
-      </c>
-      <c r="BP17" s="12">
+        <v>350798.57612593466</v>
+      </c>
+      <c r="BP17" s="16">
         <f>BO17+BO17*Main!$L$10</f>
-        <v>347876.97125973745</v>
-      </c>
-      <c r="BQ17" s="12">
+        <v>354306.561887194</v>
+      </c>
+      <c r="BQ17" s="16">
         <f>BP17+BP17*Main!$L$10</f>
-        <v>351355.74097233481</v>
-      </c>
-      <c r="BR17" s="12">
+        <v>357849.62750606594</v>
+      </c>
+      <c r="BR17" s="16">
         <f>BQ17+BQ17*Main!$L$10</f>
-        <v>354869.29838205816</v>
-      </c>
-      <c r="BS17" s="12">
+        <v>361428.12378112657</v>
+      </c>
+      <c r="BS17" s="16">
         <f>BR17+BR17*Main!$L$10</f>
-        <v>358417.99136587873</v>
-      </c>
-      <c r="BT17" s="12">
+        <v>365042.40501893783</v>
+      </c>
+      <c r="BT17" s="16">
         <f>BS17+BS17*Main!$L$10</f>
-        <v>362002.17127953749</v>
-      </c>
-      <c r="BU17" s="12">
+        <v>368692.82906912721</v>
+      </c>
+      <c r="BU17" s="16">
         <f>BT17+BT17*Main!$L$10</f>
-        <v>365622.19299233286</v>
-      </c>
-      <c r="BV17" s="12">
+        <v>372379.7573598185</v>
+      </c>
+      <c r="BV17" s="16">
         <f>BU17+BU17*Main!$L$10</f>
-        <v>369278.4149222562</v>
-      </c>
-      <c r="BW17" s="12">
+        <v>376103.55493341666</v>
+      </c>
+      <c r="BW17" s="16">
         <f>BV17+BV17*Main!$L$10</f>
-        <v>372971.19907147874</v>
-      </c>
-      <c r="BX17" s="12">
+        <v>379864.59048275085</v>
+      </c>
+      <c r="BX17" s="16">
         <f>BW17+BW17*Main!$L$10</f>
-        <v>376700.91106219351</v>
-      </c>
-      <c r="BY17" s="12">
+        <v>383663.23638757836</v>
+      </c>
+      <c r="BY17" s="16">
         <f>BX17+BX17*Main!$L$10</f>
-        <v>380467.92017281544</v>
-      </c>
-      <c r="BZ17" s="12">
+        <v>387499.86875145417</v>
+      </c>
+      <c r="BZ17" s="16">
         <f>BY17+BY17*Main!$L$10</f>
-        <v>384272.59937454358</v>
-      </c>
-      <c r="CA17" s="12">
+        <v>391374.86743896874</v>
+      </c>
+      <c r="CA17" s="16">
         <f>BZ17+BZ17*Main!$L$10</f>
-        <v>388115.32536828902</v>
-      </c>
-      <c r="CB17" s="12">
+        <v>395288.61611335841</v>
+      </c>
+      <c r="CB17" s="16">
         <f>CA17+CA17*Main!$L$10</f>
-        <v>391996.47862197191</v>
-      </c>
-      <c r="CC17" s="12">
+        <v>399241.502274492</v>
+      </c>
+      <c r="CC17" s="16">
         <f>CB17+CB17*Main!$L$10</f>
-        <v>395916.44340819161</v>
-      </c>
-      <c r="CD17" s="12">
+        <v>403233.91729723691</v>
+      </c>
+      <c r="CD17" s="16">
         <f>CC17+CC17*Main!$L$10</f>
-        <v>399875.60784227354</v>
-      </c>
-      <c r="CE17" s="12">
+        <v>407266.25647020928</v>
+      </c>
+      <c r="CE17" s="16">
         <f>CD17+CD17*Main!$L$10</f>
-        <v>403874.36392069625</v>
-      </c>
-      <c r="CF17" s="12">
+        <v>411338.91903491138</v>
+      </c>
+      <c r="CF17" s="16">
         <f>CE17+CE17*Main!$L$10</f>
-        <v>407913.10755990323</v>
-      </c>
-      <c r="CG17" s="12">
+        <v>415452.30822526047</v>
+      </c>
+      <c r="CG17" s="16">
         <f>CF17+CF17*Main!$L$10</f>
-        <v>411992.23863550229</v>
-      </c>
-      <c r="CH17" s="12">
+        <v>419606.83130751306</v>
+      </c>
+      <c r="CH17" s="16">
         <f>CG17+CG17*Main!$L$10</f>
-        <v>416112.16102185729</v>
-      </c>
-      <c r="CI17" s="12">
+        <v>423802.89962058817</v>
+      </c>
+      <c r="CI17" s="16">
         <f>CH17+CH17*Main!$L$10</f>
-        <v>420273.28263207589</v>
-      </c>
-      <c r="CJ17" s="12">
+        <v>428040.92861679406</v>
+      </c>
+      <c r="CJ17" s="16">
         <f>CI17+CI17*Main!$L$10</f>
-        <v>424476.01545839664</v>
-      </c>
-      <c r="CK17" s="12">
+        <v>432321.337902962</v>
+      </c>
+      <c r="CK17" s="16">
         <f>CJ17+CJ17*Main!$L$10</f>
-        <v>428720.77561298059</v>
-      </c>
-      <c r="CL17" s="12">
+        <v>436644.55128199159</v>
+      </c>
+      <c r="CL17" s="16">
         <f>CK17+CK17*Main!$L$10</f>
-        <v>433007.98336911038</v>
-      </c>
-      <c r="CM17" s="12">
+        <v>441010.99679481151</v>
+      </c>
+      <c r="CM17" s="16">
         <f>CL17+CL17*Main!$L$10</f>
-        <v>437338.06320280151</v>
-      </c>
-      <c r="CN17" s="12">
+        <v>445421.10676275962</v>
+      </c>
+      <c r="CN17" s="16">
         <f>CM17+CM17*Main!$L$10</f>
-        <v>441711.44383482955</v>
-      </c>
-      <c r="CO17" s="12">
+        <v>449875.31783038721</v>
+      </c>
+      <c r="CO17" s="16">
         <f>CN17+CN17*Main!$L$10</f>
-        <v>446128.55827317783</v>
-      </c>
-      <c r="CP17" s="12">
+        <v>454374.0710086911</v>
+      </c>
+      <c r="CP17" s="16">
         <f>CO17+CO17*Main!$L$10</f>
-        <v>450589.8438559096</v>
-      </c>
-      <c r="CQ17" s="12">
+        <v>458917.81171877799</v>
+      </c>
+      <c r="CQ17" s="16">
         <f>CP17+CP17*Main!$L$10</f>
-        <v>455095.74229446868</v>
-      </c>
-      <c r="CR17" s="12">
+        <v>463506.98983596574</v>
+      </c>
+      <c r="CR17" s="16">
         <f>CQ17+CQ17*Main!$L$10</f>
-        <v>459646.69971741334</v>
-      </c>
-      <c r="CS17" s="12">
+        <v>468142.05973432539</v>
+      </c>
+      <c r="CS17" s="16">
         <f>CR17+CR17*Main!$L$10</f>
-        <v>464243.16671458748</v>
-      </c>
-      <c r="CT17" s="12">
+        <v>472823.48033166863</v>
+      </c>
+      <c r="CT17" s="16">
         <f>CS17+CS17*Main!$L$10</f>
-        <v>468885.59838173335</v>
-      </c>
-      <c r="CU17" s="12">
+        <v>477551.71513498534</v>
+      </c>
+      <c r="CU17" s="16">
         <f>CT17+CT17*Main!$L$10</f>
-        <v>473574.45436555066</v>
-      </c>
-      <c r="CV17" s="12">
+        <v>482327.2322863352</v>
+      </c>
+      <c r="CV17" s="16">
         <f>CU17+CU17*Main!$L$10</f>
-        <v>478310.19890920614</v>
-      </c>
-      <c r="CW17" s="12">
+        <v>487150.50460919854</v>
+      </c>
+      <c r="CW17" s="16">
         <f>CV17+CV17*Main!$L$10</f>
-        <v>483093.30089829821</v>
-      </c>
-      <c r="CX17" s="12">
+        <v>492022.00965529052</v>
+      </c>
+      <c r="CX17" s="16">
         <f>CW17+CW17*Main!$L$10</f>
-        <v>487924.23390728119</v>
-      </c>
-      <c r="CY17" s="12">
+        <v>496942.22975184344</v>
+      </c>
+      <c r="CY17" s="16">
         <f>CX17+CX17*Main!$L$10</f>
-        <v>492803.476246354</v>
-      </c>
-      <c r="CZ17" s="12">
+        <v>501911.65204936184</v>
+      </c>
+      <c r="CZ17" s="16">
         <f>CY17+CY17*Main!$L$10</f>
-        <v>497731.51100881753</v>
-      </c>
-      <c r="DA17" s="12">
+        <v>506930.76856985549</v>
+      </c>
+      <c r="DA17" s="16">
         <f>CZ17+CZ17*Main!$L$10</f>
-        <v>502708.82611890568</v>
-      </c>
-      <c r="DB17" s="12">
+        <v>512000.07625555404</v>
+      </c>
+      <c r="DB17" s="16">
         <f>DA17+DA17*Main!$L$10</f>
-        <v>507735.91438009473</v>
-      </c>
-      <c r="DC17" s="12">
+        <v>517120.07701810956</v>
+      </c>
+      <c r="DC17" s="16">
         <f>DB17+DB17*Main!$L$10</f>
-        <v>512813.27352389571</v>
-      </c>
-      <c r="DD17" s="12">
+        <v>522291.27778829064</v>
+      </c>
+      <c r="DD17" s="16">
         <f>DC17+DC17*Main!$L$10</f>
-        <v>517941.40625913464</v>
-      </c>
-      <c r="DE17" s="12">
+        <v>527514.19056617352</v>
+      </c>
+      <c r="DE17" s="16">
         <f>DD17+DD17*Main!$L$10</f>
-        <v>523120.82032172597</v>
-      </c>
-      <c r="DF17" s="12">
+        <v>532789.33247183531</v>
+      </c>
+      <c r="DF17" s="16">
         <f>DE17+DE17*Main!$L$10</f>
-        <v>528352.02852494328</v>
-      </c>
-      <c r="DG17" s="12">
+        <v>538117.22579655366</v>
+      </c>
+      <c r="DG17" s="16">
         <f>DF17+DF17*Main!$L$10</f>
-        <v>533635.54881019273</v>
-      </c>
-      <c r="DH17" s="12">
+        <v>543498.3980545192</v>
+      </c>
+      <c r="DH17" s="16">
         <f>DG17+DG17*Main!$L$10</f>
-        <v>538971.90429829468</v>
-      </c>
-      <c r="DI17" s="12">
+        <v>548933.38203506439</v>
+      </c>
+      <c r="DI17" s="16">
         <f>DH17+DH17*Main!$L$10</f>
-        <v>544361.62334127759</v>
-      </c>
-      <c r="DJ17" s="12">
+        <v>554422.7158554151</v>
+      </c>
+      <c r="DJ17" s="16">
         <f>DI17+DI17*Main!$L$10</f>
-        <v>549805.23957469035</v>
-      </c>
-      <c r="DK17" s="12">
+        <v>559966.94301396923</v>
+      </c>
+      <c r="DK17" s="16">
         <f>DJ17+DJ17*Main!$L$10</f>
-        <v>555303.29197043728</v>
-      </c>
-      <c r="DL17" s="12">
+        <v>565566.61244410893</v>
+      </c>
+      <c r="DL17" s="16">
         <f>DK17+DK17*Main!$L$10</f>
-        <v>560856.32489014161</v>
-      </c>
-      <c r="DM17" s="12">
+        <v>571222.27856855001</v>
+      </c>
+      <c r="DM17" s="16">
         <f>DL17+DL17*Main!$L$10</f>
-        <v>566464.888139043</v>
-      </c>
-      <c r="DN17" s="12">
+        <v>576934.50135423546</v>
+      </c>
+      <c r="DN17" s="16">
         <f>DM17+DM17*Main!$L$10</f>
-        <v>572129.53702043346</v>
-      </c>
-      <c r="DO17" s="12">
+        <v>582703.84636777779</v>
+      </c>
+      <c r="DO17" s="16">
         <f>DN17+DN17*Main!$L$10</f>
-        <v>577850.83239063784</v>
-      </c>
-      <c r="DP17" s="12">
+        <v>588530.88483145554</v>
+      </c>
+      <c r="DP17" s="16">
         <f>DO17+DO17*Main!$L$10</f>
-        <v>583629.34071454417</v>
-      </c>
-      <c r="DQ17" s="12">
+        <v>594416.19367977011</v>
+      </c>
+      <c r="DQ17" s="16">
         <f>DP17+DP17*Main!$L$10</f>
-        <v>589465.6341216896</v>
-      </c>
-      <c r="DR17" s="12">
+        <v>600360.35561656777</v>
+      </c>
+      <c r="DR17" s="16">
         <f>DQ17+DQ17*Main!$L$10</f>
-        <v>595360.29046290647</v>
-      </c>
-      <c r="DS17" s="12">
+        <v>606363.95917273348</v>
+      </c>
+      <c r="DS17" s="16">
         <f>DR17+DR17*Main!$L$10</f>
-        <v>601313.89336753555</v>
-      </c>
-      <c r="DT17" s="12">
+        <v>612427.59876446077</v>
+      </c>
+      <c r="DT17" s="16">
         <f>DS17+DS17*Main!$L$10</f>
-        <v>607327.03230121091</v>
-      </c>
-      <c r="DU17" s="12">
+        <v>618551.87475210533</v>
+      </c>
+      <c r="DU17" s="16">
         <f>DT17+DT17*Main!$L$10</f>
-        <v>613400.30262422306</v>
-      </c>
-      <c r="DV17" s="12">
+        <v>624737.39349962643</v>
+      </c>
+      <c r="DV17" s="16">
         <f>DU17+DU17*Main!$L$10</f>
-        <v>619534.30565046531</v>
-      </c>
-      <c r="DW17" s="12">
+        <v>630984.76743462274</v>
+      </c>
+      <c r="DW17" s="16">
         <f>DV17+DV17*Main!$L$10</f>
-        <v>625729.64870696992</v>
-      </c>
-      <c r="DX17" s="12">
+        <v>637294.61510896892</v>
+      </c>
+      <c r="DX17" s="16">
         <f>DW17+DW17*Main!$L$10</f>
-        <v>631986.94519403961</v>
-      </c>
-      <c r="DY17" s="12">
+        <v>643667.56126005866</v>
+      </c>
+      <c r="DY17" s="16">
         <f>DX17+DX17*Main!$L$10</f>
-        <v>638306.81464598002</v>
-      </c>
-      <c r="DZ17" s="12">
+        <v>650104.2368726593</v>
+      </c>
+      <c r="DZ17" s="16">
         <f>DY17+DY17*Main!$L$10</f>
-        <v>644689.88279243978</v>
-      </c>
-      <c r="EA17" s="12">
+        <v>656605.27924138587</v>
+      </c>
+      <c r="EA17" s="16">
         <f>DZ17+DZ17*Main!$L$10</f>
-        <v>651136.78162036417</v>
-      </c>
-      <c r="EB17" s="12">
+        <v>663171.33203379973</v>
+      </c>
+      <c r="EB17" s="16">
         <f>EA17+EA17*Main!$L$10</f>
-        <v>657648.14943656779</v>
-      </c>
-      <c r="EC17" s="12">
+        <v>669803.04535413778</v>
+      </c>
+      <c r="EC17" s="16">
         <f>EB17+EB17*Main!$L$10</f>
-        <v>664224.63093093352</v>
-      </c>
-      <c r="ED17" s="12">
+        <v>676501.07580767921</v>
+      </c>
+      <c r="ED17" s="16">
         <f>EC17+EC17*Main!$L$10</f>
-        <v>670866.8772402429</v>
-      </c>
-      <c r="EE17" s="12">
+        <v>683266.08656575601</v>
+      </c>
+      <c r="EE17" s="16">
         <f>ED17+ED17*Main!$L$10</f>
-        <v>677575.54601264535</v>
-      </c>
-      <c r="EF17" s="12">
+        <v>690098.74743141362</v>
+      </c>
+      <c r="EF17" s="16">
         <f>EE17+EE17*Main!$L$10</f>
-        <v>684351.3014727718</v>
-      </c>
-      <c r="EG17" s="12">
+        <v>696999.73490572779</v>
+      </c>
+      <c r="EG17" s="16">
         <f>EF17+EF17*Main!$L$10</f>
-        <v>691194.81448749953</v>
-      </c>
-      <c r="EH17" s="12">
+        <v>703969.73225478502</v>
+      </c>
+      <c r="EH17" s="16">
         <f>EG17+EG17*Main!$L$10</f>
-        <v>698106.76263237454</v>
-      </c>
-      <c r="EI17" s="12">
+        <v>711009.42957733292</v>
+      </c>
+      <c r="EI17" s="16">
         <f>EH17+EH17*Main!$L$10</f>
-        <v>705087.83025869832</v>
-      </c>
-      <c r="EJ17" s="12">
+        <v>718119.52387310623</v>
+      </c>
+      <c r="EJ17" s="16">
         <f>EI17+EI17*Main!$L$10</f>
-        <v>712138.70856128528</v>
-      </c>
-      <c r="EK17" s="12">
+        <v>725300.71911183733</v>
+      </c>
+      <c r="EK17" s="16">
         <f>EJ17+EJ17*Main!$L$10</f>
-        <v>719260.09564689815</v>
-      </c>
-      <c r="EL17" s="12">
+        <v>732553.72630295565</v>
+      </c>
+      <c r="EL17" s="16">
         <f>EK17+EK17*Main!$L$10</f>
-        <v>726452.69660336711</v>
-      </c>
-      <c r="EM17" s="12">
+        <v>739879.26356598525</v>
+      </c>
+      <c r="EM17" s="16">
         <f>EL17+EL17*Main!$L$10</f>
-        <v>733717.22356940072</v>
-      </c>
-      <c r="EN17" s="12">
+        <v>747278.05620164506</v>
+      </c>
+      <c r="EN17" s="16">
         <f>EM17+EM17*Main!$L$10</f>
-        <v>741054.39580509474</v>
-      </c>
-      <c r="EO17" s="12">
+        <v>754750.83676366147</v>
+      </c>
+      <c r="EO17" s="16">
         <f>EN17+EN17*Main!$L$10</f>
-        <v>748464.93976314564</v>
-      </c>
-      <c r="EP17" s="12">
+        <v>762298.34513129806</v>
+      </c>
+      <c r="EP17" s="16">
         <f>EO17+EO17*Main!$L$10</f>
-        <v>755949.58916077705</v>
-      </c>
-      <c r="EQ17" s="12">
+        <v>769921.32858261105</v>
+      </c>
+      <c r="EQ17" s="16">
         <f>EP17+EP17*Main!$L$10</f>
-        <v>763509.08505238476</v>
-      </c>
-      <c r="ER17" s="12">
+        <v>777620.5418684372</v>
+      </c>
+      <c r="ER17" s="16">
         <f>EQ17+EQ17*Main!$L$10</f>
-        <v>771144.17590290867</v>
-      </c>
-      <c r="ES17" s="12">
+        <v>785396.7472871216</v>
+      </c>
+      <c r="ES17" s="16">
         <f>ER17+ER17*Main!$L$10</f>
-        <v>778855.61766193772</v>
-      </c>
-      <c r="ET17" s="12">
+        <v>793250.71475999278</v>
+      </c>
+      <c r="ET17" s="16">
         <f>ES17+ES17*Main!$L$10</f>
-        <v>786644.17383855709</v>
-      </c>
-      <c r="EU17" s="12">
+        <v>801183.22190759273</v>
+      </c>
+      <c r="EU17" s="16">
         <f>ET17+ET17*Main!$L$10</f>
-        <v>794510.61557694268</v>
-      </c>
-      <c r="EV17" s="12">
+        <v>809195.05412666861</v>
+      </c>
+      <c r="EV17" s="16">
         <f>EU17+EU17*Main!$L$10</f>
-        <v>802455.72173271212</v>
-      </c>
-    </row>
-    <row r="18" spans="2:152">
-      <c r="B18" t="s">
+        <v>817287.00466793531</v>
+      </c>
+    </row>
+    <row r="18" spans="2:152" s="13" customFormat="1">
+      <c r="B18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>0.86</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="13">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="13">
         <v>2.17</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>2.99</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="13">
         <v>2.93</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="13">
         <v>2.94</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="13">
         <v>2.95</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="13">
         <v>3.32</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="17">
         <f>L17/L19</f>
-        <v>2.6847656368918931</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="P18">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="Q18">
-        <v>5.76</v>
-      </c>
-      <c r="R18">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="S18">
-        <v>9.65</v>
-      </c>
-      <c r="T18">
-        <v>9.68</v>
-      </c>
-      <c r="U18">
-        <v>11.8</v>
+        <v>3.2281735404392071</v>
+      </c>
+      <c r="M18" s="17">
+        <f>M17/M19</f>
+        <v>3.5516141578881171</v>
+      </c>
+      <c r="N18" s="17">
+        <f>N17/N19</f>
+        <v>3.6215489950606878</v>
+      </c>
+      <c r="P18" s="18">
+        <f>P17/P19</f>
+        <v>5.0612666064749128</v>
+      </c>
+      <c r="Q18" s="18">
+        <f t="shared" ref="Q18:U18" si="7">Q17/Q19</f>
+        <v>5.7635038396459715</v>
+      </c>
+      <c r="R18" s="18">
+        <f t="shared" si="7"/>
+        <v>8.0534963196635125</v>
+      </c>
+      <c r="S18" s="18">
+        <f t="shared" si="7"/>
+        <v>9.6469496021220156</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="7"/>
+        <v>9.6842880085653107</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="7"/>
+        <v>11.800240996117285</v>
+      </c>
+      <c r="V18" s="18">
+        <f t="shared" ref="V18" si="8">V17/V19</f>
+        <v>13.826373333273754</v>
+      </c>
+      <c r="W18" s="18">
+        <f t="shared" ref="W18" si="9">W17/W19</f>
+        <v>15.315596400036304</v>
+      </c>
+      <c r="X18" s="18">
+        <f t="shared" ref="X18" si="10">X17/X19</f>
+        <v>19.082746551974509</v>
+      </c>
+      <c r="Y18" s="18">
+        <f t="shared" ref="Y18" si="11">Y17/Y19</f>
+        <v>23.614898858068454</v>
+      </c>
+      <c r="Z18" s="18">
+        <f t="shared" ref="Z18" si="12">Z17/Z19</f>
+        <v>28.337878629682145</v>
+      </c>
+      <c r="AA18" s="18">
+        <f t="shared" ref="AA18" si="13">AA17/AA19</f>
+        <v>29.754772561166252</v>
+      </c>
+      <c r="AB18" s="18">
+        <f t="shared" ref="AB18" si="14">AB17/AB19</f>
+        <v>31.242511189224565</v>
+      </c>
+      <c r="AC18" s="18">
+        <f t="shared" ref="AC18" si="15">AC17/AC19</f>
+        <v>32.179786524901303</v>
       </c>
     </row>
     <row r="19" spans="2:152">
@@ -2145,10 +2370,16 @@
         <v>7434</v>
       </c>
       <c r="L19" s="5">
-        <v>7400</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+        <v>7468</v>
+      </c>
+      <c r="M19" s="5">
+        <f>L19</f>
+        <v>7468</v>
+      </c>
+      <c r="N19" s="5">
+        <f>M19</f>
+        <v>7468</v>
+      </c>
       <c r="P19" s="5">
         <v>7753</v>
       </c>
@@ -2165,6 +2396,38 @@
         <v>7472</v>
       </c>
       <c r="U19" s="5">
+        <v>7469</v>
+      </c>
+      <c r="V19" s="5">
+        <f>U19</f>
+        <v>7469</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" ref="W19:AC19" si="16">V19</f>
+        <v>7469</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="16"/>
+        <v>7469</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="16"/>
+        <v>7469</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" si="16"/>
+        <v>7469</v>
+      </c>
+      <c r="AA19" s="5">
+        <f t="shared" si="16"/>
+        <v>7469</v>
+      </c>
+      <c r="AB19" s="5">
+        <f t="shared" si="16"/>
+        <v>7469</v>
+      </c>
+      <c r="AC19" s="5">
+        <f t="shared" si="16"/>
         <v>7469</v>
       </c>
     </row>
@@ -2173,19 +2436,19 @@
         <v>25</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:J21" si="2">G5/C5-1</f>
+        <f t="shared" ref="G21:J21" si="17">G5/C5-1</f>
         <v>0.12758868361198683</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>0.17580146738203117</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>0.17028964943148495</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>0.15195144957198026</v>
       </c>
       <c r="K21" s="6">
@@ -2194,27 +2457,30 @@
       </c>
       <c r="L21" s="6">
         <f>L5/H5-1</f>
-        <v>0.1100000000000001</v>
+        <v>0.12273460174137374</v>
       </c>
       <c r="M21" s="6">
         <f>M5/I5-1</f>
-        <v>0.12250000000000028</v>
-      </c>
-      <c r="N21" s="6"/>
+        <v>0.129</v>
+      </c>
+      <c r="N21" s="6">
+        <f>N5/J5-1</f>
+        <v>0.12999999999999989</v>
+      </c>
       <c r="Q21" s="6">
-        <f t="shared" ref="Q21:T21" si="3">Q5/P5-1</f>
+        <f t="shared" ref="Q21:T21" si="18">Q5/P5-1</f>
         <v>0.13645574247276371</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>0.17531727441177503</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>0.17956070629670173</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>6.8820295556564215E-2</v>
       </c>
       <c r="U21" s="6">
@@ -2242,62 +2508,89 @@
       <c r="AB21" s="6">
         <v>0.05</v>
       </c>
+      <c r="AC21" s="6">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22" spans="2:152">
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6">
-        <v>0.69169999999999998</v>
+        <f t="shared" ref="C22:L22" si="19">C7/C5</f>
+        <v>0.69171222217788597</v>
       </c>
       <c r="D22" s="6">
-        <v>0.66849999999999998</v>
+        <f t="shared" si="19"/>
+        <v>0.66845507801391546</v>
       </c>
       <c r="E22" s="6">
-        <v>0.69489999999999996</v>
+        <f t="shared" si="19"/>
+        <v>0.69487485101311086</v>
       </c>
       <c r="F22" s="6">
-        <v>0.70109999999999995</v>
+        <f t="shared" si="19"/>
+        <v>0.70109807969531401</v>
       </c>
       <c r="G22" s="6">
-        <v>0.71160000000000001</v>
+        <f t="shared" si="19"/>
+        <v>0.71155581506449384</v>
       </c>
       <c r="H22" s="6">
-        <v>0.68359999999999999</v>
+        <f t="shared" si="19"/>
+        <v>0.68360206385037081</v>
       </c>
       <c r="I22" s="6">
-        <v>0.70079999999999998</v>
+        <f t="shared" si="19"/>
+        <v>0.70084710142584628</v>
       </c>
       <c r="J22" s="6">
-        <v>0.69589999999999996</v>
+        <f t="shared" si="19"/>
+        <v>0.69589197707293715</v>
       </c>
       <c r="K22" s="6">
-        <v>0.69350000000000001</v>
+        <f t="shared" si="19"/>
+        <v>0.69354273080734929</v>
       </c>
       <c r="L22" s="6">
-        <v>0.69350000000000001</v>
+        <f t="shared" si="19"/>
+        <v>0.68693991268382348</v>
       </c>
       <c r="M22" s="6">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="N22" s="6"/>
+        <f>M7/M5</f>
+        <v>0.70256941660807126</v>
+      </c>
+      <c r="N22" s="6">
+        <f>N7/N5</f>
+        <v>0.69858319851476947</v>
+      </c>
       <c r="P22" s="6">
-        <v>0.65900000000000003</v>
+        <f>P7/P5</f>
+        <v>0.65901957200638894</v>
       </c>
       <c r="Q22" s="6">
-        <v>0.67779999999999996</v>
+        <f t="shared" ref="Q22:V22" si="20">Q7/Q5</f>
+        <v>0.67781001992797962</v>
       </c>
       <c r="R22" s="6">
-        <v>0.68930000000000002</v>
+        <f t="shared" si="20"/>
+        <v>0.68925800771024703</v>
       </c>
       <c r="S22" s="6">
-        <v>0.68400000000000005</v>
+        <f t="shared" si="20"/>
+        <v>0.68401674484289099</v>
       </c>
       <c r="T22" s="6">
-        <v>0.68920000000000003</v>
+        <f t="shared" si="20"/>
+        <v>0.68920085883491022</v>
       </c>
       <c r="U22" s="6">
-        <v>0.68920000000000003</v>
+        <f t="shared" si="20"/>
+        <v>0.69764443827971379</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="20"/>
+        <v>0.69548130083678494</v>
       </c>
     </row>
     <row r="23" spans="2:152">
@@ -2305,54 +2598,80 @@
         <v>27</v>
       </c>
       <c r="C23" s="6">
-        <v>7.7000000000000002E-3</v>
+        <f t="shared" ref="C23:G23" si="21">C15/C14</f>
+        <v>7.6898133135683512E-3</v>
       </c>
       <c r="D23" s="6">
-        <v>0.19239999999999999</v>
+        <f t="shared" si="21"/>
+        <v>0.19243817296818919</v>
       </c>
       <c r="E23" s="6">
-        <v>0.19289999999999999</v>
+        <f t="shared" si="21"/>
+        <v>0.19291668504388479</v>
       </c>
       <c r="F23" s="6">
-        <v>0.34379999999999999</v>
+        <f t="shared" si="21"/>
+        <v>0.34380058271285208</v>
       </c>
       <c r="G23" s="6">
-        <v>0.183</v>
+        <f t="shared" si="21"/>
+        <v>0.18300102624248643</v>
       </c>
       <c r="H23" s="6">
-        <v>0.17549999999999999</v>
+        <f t="shared" ref="G23:K23" si="22">H15/H14</f>
+        <v>0.17552589911784663</v>
       </c>
       <c r="I23" s="6">
-        <v>0.17910000000000001</v>
+        <f t="shared" si="22"/>
+        <v>0.17914468514984846</v>
       </c>
       <c r="J23" s="6">
-        <v>0.1913</v>
+        <f t="shared" si="22"/>
+        <v>0.1913394495412844</v>
       </c>
       <c r="K23" s="6">
-        <v>0.18509999999999999</v>
+        <f t="shared" si="22"/>
+        <v>0.18507383791998414</v>
       </c>
       <c r="L23" s="6">
-        <v>0.18509999999999999</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+        <f>L15/L14</f>
+        <v>0.17902264600715137</v>
+      </c>
+      <c r="M23" s="6">
+        <f>M15/M14</f>
+        <v>0.17902264600715137</v>
+      </c>
+      <c r="N23" s="6">
+        <f>N15/N14</f>
+        <v>0.17902264600715137</v>
+      </c>
       <c r="P23" s="6">
-        <v>0.1018</v>
+        <f>P15/P14</f>
+        <v>0.10181285478850027</v>
       </c>
       <c r="Q23" s="6">
-        <v>0.1651</v>
+        <f t="shared" ref="Q23:V23" si="23">Q15/Q14</f>
+        <v>0.16507655177615205</v>
       </c>
       <c r="R23" s="6">
-        <v>0.13830000000000001</v>
+        <f t="shared" si="23"/>
+        <v>0.13826615285083402</v>
       </c>
       <c r="S23" s="6">
-        <v>0.13109999999999999</v>
+        <f t="shared" si="23"/>
+        <v>0.13113383343685794</v>
       </c>
       <c r="T23" s="6">
-        <v>0.1898</v>
+        <f t="shared" si="23"/>
+        <v>0.18978625253328257</v>
       </c>
       <c r="U23" s="6">
-        <v>0.1898</v>
+        <f t="shared" si="23"/>
+        <v>0.18231326597827197</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="23"/>
+        <v>0.17916228236627166</v>
       </c>
     </row>
     <row r="24" spans="2:152">
@@ -2360,62 +2679,84 @@
         <v>28</v>
       </c>
       <c r="C24" s="6">
-        <v>0.4274</v>
+        <f t="shared" ref="C24:G24" si="24">C17/C5</f>
+        <v>0.42737719963289572</v>
       </c>
       <c r="D24" s="6">
-        <v>0.31140000000000001</v>
+        <f t="shared" si="24"/>
+        <v>0.31139211708722769</v>
       </c>
       <c r="E24" s="6">
-        <v>0.34620000000000001</v>
+        <f t="shared" si="24"/>
+        <v>0.34619823296819718</v>
       </c>
       <c r="F24" s="6">
-        <v>0.28860000000000002</v>
+        <f t="shared" si="24"/>
+        <v>0.28859741230489955</v>
       </c>
       <c r="G24" s="6">
-        <v>0.39439999999999997</v>
+        <f t="shared" si="24"/>
+        <v>0.39441230072367606</v>
       </c>
       <c r="H24" s="6">
-        <v>0.35260000000000002</v>
+        <f t="shared" ref="H24:L24" si="25">H17/H5</f>
+        <v>0.35262818445662691</v>
       </c>
       <c r="I24" s="6">
-        <v>0.35470000000000002</v>
+        <f t="shared" si="25"/>
+        <v>0.35466714087102719</v>
       </c>
       <c r="J24" s="6">
-        <v>0.34039999999999998</v>
+        <f t="shared" si="25"/>
+        <v>0.34044525468506187</v>
       </c>
       <c r="K24" s="6">
-        <v>0.37609999999999999</v>
+        <f t="shared" si="25"/>
+        <v>0.37610734161774795</v>
       </c>
       <c r="L24" s="6">
-        <v>0.37609999999999999</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+        <f t="shared" si="25"/>
+        <v>0.34622012867647056</v>
+      </c>
+      <c r="M24" s="6">
+        <f>M17/M5</f>
+        <v>0.37978715460671303</v>
+      </c>
+      <c r="N24" s="6">
+        <f>N17/N5</f>
+        <v>0.36977262152658891</v>
+      </c>
       <c r="P24" s="6">
-        <v>0.31180000000000002</v>
+        <f>P17/P5</f>
+        <v>0.31181710544090652</v>
       </c>
       <c r="Q24" s="6">
-        <v>0.30959999999999999</v>
+        <f t="shared" ref="Q24:U24" si="26">Q17/Q5</f>
+        <v>0.30962486452470023</v>
       </c>
       <c r="R24" s="6">
-        <v>0.36449999999999999</v>
+        <f t="shared" si="26"/>
+        <v>0.36451739564989766</v>
       </c>
       <c r="S24" s="6">
-        <v>0.3669</v>
+        <f t="shared" si="26"/>
+        <v>0.36686336813436221</v>
       </c>
       <c r="T24" s="6">
-        <v>0.34150000000000003</v>
+        <f t="shared" si="26"/>
+        <v>0.34146237878394642</v>
       </c>
       <c r="U24" s="6">
-        <v>0.35959999999999998</v>
+        <f t="shared" si="26"/>
+        <v>0.35955972944084985</v>
       </c>
       <c r="V24" s="6">
         <f>U24</f>
-        <v>0.35959999999999998</v>
+        <v>0.35955972944084985</v>
       </c>
       <c r="W24" s="6">
         <f>V24</f>
-        <v>0.35959999999999998</v>
+        <v>0.35955972944084985</v>
       </c>
       <c r="X24" s="7">
         <v>0.4</v>
@@ -2430,6 +2771,9 @@
         <v>0.5</v>
       </c>
       <c r="AB24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AC24" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -2438,16 +2782,66 @@
         <v>29</v>
       </c>
       <c r="Q25" s="6">
-        <v>0.14180000000000001</v>
+        <f t="shared" ref="Q25:S25" si="27">Q8/P8-1</f>
+        <v>0.14179900450343674</v>
       </c>
       <c r="R25" s="6">
-        <v>7.51E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.5094711713114437E-2</v>
       </c>
       <c r="S25" s="6">
-        <v>0.1832</v>
+        <f t="shared" si="27"/>
+        <v>0.1832400077234988</v>
       </c>
       <c r="T25" s="6">
-        <v>0.1095</v>
+        <f>T8/S8-1</f>
+        <v>0.10945659268929497</v>
+      </c>
+      <c r="U25" s="6">
+        <f>U8/T8-1</f>
+        <v>8.5125942268799326E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:152">
+      <c r="L28" s="8">
+        <f>L8/H8-1</f>
+        <v>0.10851302156258757</v>
+      </c>
+      <c r="M28" s="8">
+        <f>M8/I8-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="N28" s="8">
+        <f>N8/J8-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:152">
+      <c r="L29" s="8">
+        <f t="shared" ref="L29:N30" si="28">L9/H9-1</f>
+        <v>3.1059878322126089E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="28"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:152">
+      <c r="L30" s="8">
+        <f t="shared" si="28"/>
+        <v>-7.7895801719777391E-2</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="28"/>
+        <v>-4.6548117154811663E-2</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="28"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
     </row>
   </sheetData>
